--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>nazev</t>
   </si>
@@ -25,15 +25,21 @@
     <t>prednasejiciUcitIdno</t>
   </si>
   <si>
+    <t>Teoretická informatika a matematika</t>
+  </si>
+  <si>
+    <t>Paralelní programování</t>
+  </si>
+  <si>
+    <t>Matematika pro informatiky</t>
+  </si>
+  <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
     <t>Teorie formálních jazyků</t>
   </si>
   <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
-    <t>Teoretická informatika a matematika</t>
-  </si>
-  <si>
     <t>System Simulation</t>
   </si>
   <si>
@@ -52,30 +58,33 @@
     <t>Analogová elektronika</t>
   </si>
   <si>
-    <t>Paralelní programování</t>
-  </si>
-  <si>
     <t>Analýza síťové komunikace</t>
   </si>
   <si>
-    <t>Matematika pro informatiky</t>
-  </si>
-  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
+    <t>YTIM</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>KPPG</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
     <t>TFL</t>
   </si>
   <si>
     <t>KDSA</t>
   </si>
   <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>YTIM</t>
-  </si>
-  <si>
     <t>KSYS</t>
   </si>
   <si>
@@ -85,12 +94,12 @@
     <t>PSP</t>
   </si>
   <si>
+    <t>BIG</t>
+  </si>
+  <si>
     <t>KBIG</t>
   </si>
   <si>
-    <t>BIG</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
@@ -100,70 +109,25 @@
     <t>KANE</t>
   </si>
   <si>
+    <t>ANE</t>
+  </si>
+  <si>
     <t>KAEL</t>
   </si>
   <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>KPPG</t>
-  </si>
-  <si>
-    <t>PPG</t>
-  </si>
-  <si>
     <t>ASK</t>
   </si>
   <si>
-    <t>MAI</t>
-  </si>
-  <si>
     <t>EPYR</t>
-  </si>
-  <si>
-    <t>2240</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>2855</t>
-  </si>
-  <si>
-    <t>3458</t>
-  </si>
-  <si>
-    <t>4195</t>
-  </si>
-  <si>
-    <t>4685</t>
-  </si>
-  <si>
-    <t>5039</t>
-  </si>
-  <si>
-    <t>5205</t>
-  </si>
-  <si>
-    <t>5232</t>
-  </si>
-  <si>
-    <t>609</t>
-  </si>
-  <si>
-    <t>7152</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>8514</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -193,17 +157,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf/>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -215,7 +185,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
-    <tableColumn id="3" name="prednasejiciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="3" name="prednasejiciUcitIdno" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,8 +500,8 @@
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
+      <c r="C2" s="2">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -541,8 +511,8 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
+      <c r="C3" s="2">
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -552,8 +522,8 @@
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
+      <c r="C4" s="2">
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -563,8 +533,8 @@
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
+      <c r="C5" s="2">
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -574,30 +544,30 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
+      <c r="C6" s="2">
+        <v>2240</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
+      <c r="C7" s="2">
+        <v>2240</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
+      <c r="C8" s="2">
+        <v>2240</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -607,8 +577,8 @@
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
+      <c r="C9" s="2">
+        <v>2855</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,8 +588,8 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
+      <c r="C10" s="2">
+        <v>2855</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,8 +599,8 @@
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
+      <c r="C11" s="2">
+        <v>3458</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -640,19 +610,19 @@
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
+      <c r="C12" s="2">
+        <v>4195</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4195</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,54 +630,54 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4685</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5039</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5205</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
+      <c r="C17" s="2">
+        <v>5232</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
+      <c r="C18" s="2">
+        <v>5232</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -717,8 +687,8 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
+      <c r="C19" s="2">
+        <v>5232</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -728,8 +698,8 @@
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
+      <c r="C20" s="2">
+        <v>7152</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -739,8 +709,8 @@
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
+      <c r="C21" s="2">
+        <v>8514</v>
       </c>
     </row>
   </sheetData>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -76,15 +76,15 @@
     <t>MAI</t>
   </si>
   <si>
+    <t>KDSA</t>
+  </si>
+  <si>
     <t>DSA</t>
   </si>
   <si>
     <t>TFL</t>
   </si>
   <si>
-    <t>KDSA</t>
-  </si>
-  <si>
     <t>KSYS</t>
   </si>
   <si>
@@ -94,25 +94,25 @@
     <t>PSP</t>
   </si>
   <si>
+    <t>KBIG</t>
+  </si>
+  <si>
     <t>BIG</t>
   </si>
   <si>
-    <t>KBIG</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
     <t>AUC</t>
   </si>
   <si>
+    <t>ANE</t>
+  </si>
+  <si>
+    <t>KAEL</t>
+  </si>
+  <si>
     <t>KANE</t>
-  </si>
-  <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>KAEL</t>
   </si>
   <si>
     <t>ASK</t>
@@ -550,7 +550,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>nazev</t>
   </si>
@@ -25,6 +25,9 @@
     <t>prednasejiciUcitIdno</t>
   </si>
   <si>
+    <t>jmena</t>
+  </si>
+  <si>
     <t>Teoretická informatika a matematika</t>
   </si>
   <si>
@@ -34,12 +37,12 @@
     <t>Matematika pro informatiky</t>
   </si>
   <si>
+    <t>Teorie formálních jazyků</t>
+  </si>
+  <si>
     <t>Algoritmy a datové struktury</t>
   </si>
   <si>
-    <t>Teorie formálních jazyků</t>
-  </si>
-  <si>
     <t>System Simulation</t>
   </si>
   <si>
@@ -67,39 +70,39 @@
     <t>YTIM</t>
   </si>
   <si>
+    <t>KPPG</t>
+  </si>
+  <si>
     <t>PPG</t>
   </si>
   <si>
-    <t>KPPG</t>
-  </si>
-  <si>
     <t>MAI</t>
   </si>
   <si>
+    <t>TFL</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
     <t>KDSA</t>
   </si>
   <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>TFL</t>
+    <t>SYS</t>
   </si>
   <si>
     <t>KSYS</t>
   </si>
   <si>
-    <t>SYS</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
+    <t>BIG</t>
+  </si>
+  <si>
     <t>KBIG</t>
   </si>
   <si>
-    <t>BIG</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
@@ -119,6 +122,48 @@
   </si>
   <si>
     <t>EPYR</t>
+  </si>
+  <si>
+    <t>'doc. PaedDr. Petr Eisenmann CSc.</t>
+  </si>
+  <si>
+    <t>'prof. Ing. Martin Lísal DSc.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Jiří Felcman CSc.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Karel Oliva Dr.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Karel Oliva Dr.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Jan Jirsák Ph.D.</t>
+  </si>
+  <si>
+    <t>'Ing. Toni Koluch Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Ing. Václav Valenta'</t>
+  </si>
+  <si>
+    <t>'Hoon Ko Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Mgr. Petr Klán CSc.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Veronika Pitrová PhD., Ph.D.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. František Lustig CSc.'</t>
+  </si>
+  <si>
+    <t>'Ing. Vojtěch Šindler'</t>
+  </si>
+  <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.</t>
   </si>
 </sst>
 </file>
@@ -180,12 +225,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
     <tableColumn id="3" name="prednasejiciUcitIdno" dataDxfId="1"/>
+    <tableColumn id="4" name="jmena" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,13 +522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,225 +538,288 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>609</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>609</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>816</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>2240</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>2240</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>2240</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>2855</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>2855</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>3458</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2">
         <v>4195</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>4195</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>4685</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>5039</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>5205</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>5232</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>5232</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>5232</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>7152</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>8514</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -37,12 +37,12 @@
     <t>Matematika pro informatiky</t>
   </si>
   <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
     <t>Teorie formálních jazyků</t>
   </si>
   <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
     <t>System Simulation</t>
   </si>
   <si>
@@ -79,30 +79,30 @@
     <t>MAI</t>
   </si>
   <si>
+    <t>KDSA</t>
+  </si>
+  <si>
     <t>TFL</t>
   </si>
   <si>
     <t>DSA</t>
   </si>
   <si>
-    <t>KDSA</t>
+    <t>KSYS</t>
   </si>
   <si>
     <t>SYS</t>
   </si>
   <si>
-    <t>KSYS</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
+    <t>KBIG</t>
+  </si>
+  <si>
     <t>BIG</t>
   </si>
   <si>
-    <t>KBIG</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>ANE</t>
   </si>
   <si>
+    <t>KANE</t>
+  </si>
+  <si>
     <t>KAEL</t>
   </si>
   <si>
-    <t>KANE</t>
-  </si>
-  <si>
     <t>ASK</t>
   </si>
   <si>
@@ -133,10 +133,10 @@
     <t>'doc. RNDr. Jiří Felcman CSc.</t>
   </si>
   <si>
+    <t>'doc. RNDr. Karel Oliva Dr.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Karel Oliva Dr.'</t>
-  </si>
-  <si>
-    <t>'doc. RNDr. Karel Oliva Dr.</t>
   </si>
   <si>
     <t>'doc. RNDr. Jan Jirsák Ph.D.</t>
@@ -628,7 +628,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -637,7 +637,7 @@
         <v>2240</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="262">
   <si>
     <t>nazev</t>
   </si>
@@ -28,79 +28,519 @@
     <t>jmena</t>
   </si>
   <si>
-    <t>Teoretická informatika a matematika</t>
-  </si>
-  <si>
-    <t>Paralelní programování</t>
+    <t>Fyzika pevných látek I</t>
+  </si>
+  <si>
+    <t>Demografie</t>
+  </si>
+  <si>
+    <t>Anorganická chemie Nmgr.</t>
+  </si>
+  <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
+    <t>Patobiologie živočišných buněk a tkání</t>
+  </si>
+  <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
+    <t>Úvod do počítačového modelování</t>
+  </si>
+  <si>
+    <t>Vakuová fyzika a technika</t>
+  </si>
+  <si>
+    <t>Počítačové simulace v nanotechnologiích</t>
+  </si>
+  <si>
+    <t>Charakterizace materiálů I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Potenciál kulturní krajiny a GIS</t>
+  </si>
+  <si>
+    <t>Metody geografického výzkumu krajiny</t>
+  </si>
+  <si>
+    <t>Problémové oblasti Česka</t>
+  </si>
+  <si>
+    <t>Didaktika chemie I</t>
+  </si>
+  <si>
+    <t>Didaktika chemie II - SŠ</t>
+  </si>
+  <si>
+    <t>VK-Regionální geografie Portugalska</t>
+  </si>
+  <si>
+    <t>Systém kvality a vyhodnocování dat</t>
+  </si>
+  <si>
+    <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
     <t>Matematika pro informatiky</t>
   </si>
   <si>
+    <t>VK - Úvod do geografie náboženství</t>
+  </si>
+  <si>
+    <t>Hodnocení nebezpečných vlastností odpadů</t>
+  </si>
+  <si>
+    <t>Somatologie</t>
+  </si>
+  <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Approaches to regional histories</t>
+  </si>
+  <si>
+    <t>Logistika</t>
+  </si>
+  <si>
+    <t>Met. analýz mat. 
+využ. el. mikroskopie</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
+    <t>Specializační přednášky z praxe</t>
+  </si>
+  <si>
+    <t>VK-Proměny kulturní krajiny</t>
+  </si>
+  <si>
+    <t>Didaktika geografie I</t>
+  </si>
+  <si>
+    <t>Value orient. in transforming societies</t>
+  </si>
+  <si>
     <t>Algoritmy a datové struktury</t>
   </si>
   <si>
     <t>Teorie formálních jazyků</t>
   </si>
   <si>
-    <t>System Simulation</t>
+    <t>Labor. Techniq. in Mol. and Cell Biology</t>
+  </si>
+  <si>
+    <t>VK-Česká republika a EU</t>
+  </si>
+  <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
+    <t>Návykové látky a právní předpisy</t>
+  </si>
+  <si>
+    <t>Medicína katastrof</t>
+  </si>
+  <si>
+    <t>Lékové intoxikace</t>
+  </si>
+  <si>
+    <t>Technologie ochrany životního prostředí</t>
+  </si>
+  <si>
+    <t>Úvod do toxikologie</t>
+  </si>
+  <si>
+    <t>Ekotoxikologie</t>
+  </si>
+  <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
+    <t>Toxikologie NMgr.</t>
+  </si>
+  <si>
+    <t>Úvod do fotofyziky a fotochemie nanomat.</t>
+  </si>
+  <si>
+    <t>Fotofyzika a fotochemie nanomateriálů</t>
   </si>
   <si>
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
+    <t>Funkce a struktura buněčných membrán</t>
+  </si>
+  <si>
+    <t>Základy bioinženýrství</t>
+  </si>
+  <si>
     <t>Datová úložiště a nástroje pro Big Data</t>
   </si>
   <si>
+    <t>Neziskový sektor a regionální rozvoj</t>
+  </si>
+  <si>
+    <t>Domestikace a domestikanti</t>
+  </si>
+  <si>
     <t>Information Security</t>
   </si>
   <si>
     <t>Automatické řízení</t>
   </si>
   <si>
-    <t>Analogová elektronika</t>
+    <t>Forenzní vědy</t>
+  </si>
+  <si>
+    <t>Klinická biochemie a patobiochemie</t>
+  </si>
+  <si>
+    <t>Bioaktivní přírodní látky</t>
+  </si>
+  <si>
+    <t>Fyzika plazmatu a plazmové technologie</t>
+  </si>
+  <si>
+    <t>Met. analýz mat. 
+využ. prin. el. spektr</t>
+  </si>
+  <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
+  </si>
+  <si>
+    <t>Veřejná správa</t>
+  </si>
+  <si>
+    <t>Srovnávací anatom. a morfol. obratlovců</t>
+  </si>
+  <si>
+    <t>Veřejné finance</t>
+  </si>
+  <si>
+    <t>Toxikologie a legislavita ČR a EU 2</t>
   </si>
   <si>
     <t>Analýza síťové komunikace</t>
   </si>
   <si>
+    <t>Přípr. a využití nanovlákenných struktur</t>
+  </si>
+  <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
+    <t>Kompozity nanočástic kovů a jejich oxidů</t>
+  </si>
+  <si>
+    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+  </si>
+  <si>
+    <t>Regulace a poruchy signálních drah ž.b.</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
-    <t>YTIM</t>
-  </si>
-  <si>
-    <t>KPPG</t>
-  </si>
-  <si>
-    <t>PPG</t>
+    <t>Geometrie</t>
+  </si>
+  <si>
+    <t>K839</t>
+  </si>
+  <si>
+    <t>FDEMO</t>
+  </si>
+  <si>
+    <t>5DEMO</t>
+  </si>
+  <si>
+    <t>N114</t>
+  </si>
+  <si>
+    <t>KN11</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N059</t>
+  </si>
+  <si>
+    <t>KB502</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>KUDPM</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>PSVN</t>
+  </si>
+  <si>
+    <t>UDPM</t>
+  </si>
+  <si>
+    <t>CHM1</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>M214</t>
+  </si>
+  <si>
+    <t>M409</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>KN10</t>
+  </si>
+  <si>
+    <t>N115</t>
+  </si>
+  <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>N111</t>
+  </si>
+  <si>
+    <t>P366</t>
   </si>
   <si>
     <t>MAI</t>
   </si>
   <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>N308</t>
+  </si>
+  <si>
+    <t>BK423</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>BP423</t>
+  </si>
+  <si>
+    <t>PD106</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>AP03</t>
+  </si>
+  <si>
+    <t>AP05</t>
+  </si>
+  <si>
+    <t>B605</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>N001</t>
+  </si>
+  <si>
+    <t>PD109</t>
+  </si>
+  <si>
     <t>KDSA</t>
   </si>
   <si>
+    <t>DSA</t>
+  </si>
+  <si>
     <t>TFL</t>
   </si>
   <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>KSYS</t>
-  </si>
-  <si>
-    <t>SYS</t>
+    <t>E121</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
+    <t>FINA</t>
+  </si>
+  <si>
+    <t>N107</t>
+  </si>
+  <si>
+    <t>BK307</t>
+  </si>
+  <si>
+    <t>N321</t>
+  </si>
+  <si>
+    <t>P518</t>
+  </si>
+  <si>
+    <t>P414</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>N216</t>
+  </si>
+  <si>
+    <t>NA18</t>
+  </si>
+  <si>
+    <t>PD53</t>
   </si>
   <si>
     <t>PSP</t>
   </si>
   <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
     <t>KBIG</t>
   </si>
   <si>
-    <t>BIG</t>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>N050</t>
   </si>
   <si>
     <t>0177</t>
@@ -109,61 +549,259 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>KANE</t>
-  </si>
-  <si>
-    <t>KAEL</t>
+    <t>N223</t>
+  </si>
+  <si>
+    <t>N224</t>
+  </si>
+  <si>
+    <t>N211</t>
+  </si>
+  <si>
+    <t>P750</t>
+  </si>
+  <si>
+    <t>P861</t>
+  </si>
+  <si>
+    <t>AP04</t>
+  </si>
+  <si>
+    <t>P839</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>VSP</t>
+  </si>
+  <si>
+    <t>N060</t>
+  </si>
+  <si>
+    <t>VFIN</t>
+  </si>
+  <si>
+    <t>P629</t>
   </si>
   <si>
     <t>ASK</t>
   </si>
   <si>
+    <t>PD55</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>ME301</t>
+  </si>
+  <si>
+    <t>ME302</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
-    <t>'doc. PaedDr. Petr Eisenmann CSc.</t>
-  </si>
-  <si>
-    <t>'prof. Ing. Martin Lísal DSc.</t>
+    <t>P335</t>
+  </si>
+  <si>
+    <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Miloslav Šašek CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Tomáš Loučka CSc.</t>
+  </si>
+  <si>
+    <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
+  </si>
+  <si>
+    <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
+  </si>
+  <si>
+    <t>'prof. RNDr. Stanislav Novák CSc.</t>
+  </si>
+  <si>
+    <t>'prof. RNDr. Stanislav Novák CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Dušan Novotný CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Dušan Novotný CSc.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Martin Balej Ph.D.</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Martin Balej Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Milan Bursa CSc.'</t>
+  </si>
+  <si>
+    <t>'prof. PhDr. Jiří Škoda Ph.D., MBA</t>
+  </si>
+  <si>
+    <t>'Mgr. Tomáš Oršulák</t>
+  </si>
+  <si>
+    <t>'Ing. Václav Synek Ph.D.'</t>
   </si>
   <si>
     <t>'doc. RNDr. Jiří Felcman CSc.</t>
   </si>
   <si>
+    <t>'doc. RNDr. Ladislav Skokan CSc.'</t>
+  </si>
+  <si>
+    <t>'Ing. Václav Dušek</t>
+  </si>
+  <si>
+    <t>'Mgr. Karina Vašinová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Mgr. Martin Veselý Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Ing. Daniela Vysloužilová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Jan Lorinčík CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Ivan Bičík CSc.'</t>
+  </si>
+  <si>
+    <t>'PhDr. Aleš Navrátil Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Zuzana Pavlasová'</t>
+  </si>
+  <si>
+    <t>'prof. Petr Dostál Ph.D., M.A.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Karel Oliva Dr.</t>
   </si>
   <si>
     <t>'doc. RNDr. Karel Oliva Dr.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jan Jirsák Ph.D.</t>
+    <t>'Mgr. Alena Semerádtová Ph.D.</t>
+  </si>
+  <si>
+    <t>'doc. Dr. phil. Mgr. Lukáš Novotný Ph.D., M.A.'</t>
+  </si>
+  <si>
+    <t>'Ing. Kateřina Felixová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'prof. PharmDr. Jana Žďárová-Karasová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Ing. Stanislav Hejda Ph.D.</t>
+  </si>
+  <si>
+    <t>'PharmDr. Markéta Švarcová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'PharmDr. Markéta Švarcová Ph.D.</t>
+  </si>
+  <si>
+    <t>'Ing. Kamil Lang CSc.'</t>
   </si>
   <si>
     <t>'Ing. Toni Koluch Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Hana Sychrová DrSc.'</t>
+  </si>
+  <si>
+    <t>'MUDr. Lucie Bačáková CSc.'</t>
+  </si>
+  <si>
     <t>'Ing. Václav Valenta'</t>
   </si>
   <si>
+    <t>'prof. RNDr. Zdeněk Fišar CSc.</t>
+  </si>
+  <si>
+    <t>'Mgr. Petr Bláha Ph.D.'</t>
+  </si>
+  <si>
+    <t>'prof. RNDr. Stanislav Komárek Ph.D.'</t>
+  </si>
+  <si>
     <t>'Hoon Ko Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Vladimír Balach</t>
+  </si>
+  <si>
     <t>'doc. Ing. Mgr. Petr Klán CSc.'</t>
   </si>
   <si>
-    <t>'RNDr. Veronika Pitrová PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>'doc. RNDr. František Lustig CSc.'</t>
+    <t>'PhDr. Jaroslav Žďára</t>
+  </si>
+  <si>
+    <t>'Ing. Jaroslav Procházka'</t>
+  </si>
+  <si>
+    <t>'prof. doc. RNDr. Irena Valterová CSc.'</t>
+  </si>
+  <si>
+    <t>'doc. Mgr. Pavel Kudrna'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Jiří Pavluch CSc.'</t>
+  </si>
+  <si>
+    <t>'Ing. Eva Krumpová</t>
+  </si>
+  <si>
+    <t>'RNDr. Michal Němec Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Ing. Lucie Kopáčková</t>
+  </si>
+  <si>
+    <t>'Ing. Ivan Hrabal'</t>
   </si>
   <si>
     <t>'Ing. Vojtěch Šindler'</t>
   </si>
   <si>
+    <t>'Ing. Marcela Munzarová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'PaedDr. Milan Kubiatko PhD.'</t>
+  </si>
+  <si>
+    <t>'Ing. Darina Smržová Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Pavel Branny CSc.</t>
+  </si>
+  <si>
+    <t>'Ing. Tomáš Vomastek Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.</t>
+  </si>
+  <si>
+    <t>'RNDr. Lenka Juklová Ph.D.</t>
+  </si>
+  <si>
+    <t>'RNDr. Alžběta Dlabková Ph.D.</t>
   </si>
 </sst>
 </file>
@@ -225,8 +863,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D112" totalsRowShown="0">
+  <autoFilter ref="A1:D112"/>
   <tableColumns count="4">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -522,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,13 +1185,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -561,13 +1199,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
-        <v>609</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -575,13 +1213,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2">
-        <v>609</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -589,55 +1227,55 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2">
-        <v>816</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2">
-        <v>2240</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2">
-        <v>2240</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2">
-        <v>2240</v>
+        <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -645,13 +1283,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
-        <v>2855</v>
+        <v>281</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -659,13 +1297,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2">
-        <v>2855</v>
+        <v>281</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -673,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2">
-        <v>3458</v>
+        <v>306</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -687,41 +1325,41 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2">
-        <v>4195</v>
+        <v>306</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2">
-        <v>4195</v>
+        <v>306</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2">
-        <v>4685</v>
+        <v>306</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -729,97 +1367,1371 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2">
-        <v>5039</v>
+        <v>306</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2">
-        <v>5205</v>
+        <v>307</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2">
-        <v>5232</v>
+        <v>307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2">
-        <v>5232</v>
+        <v>307</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2">
-        <v>5232</v>
+        <v>307</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2">
-        <v>7152</v>
+        <v>307</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="2">
+        <v>307</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="2">
+        <v>307</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2">
+        <v>307</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2">
+        <v>307</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2">
+        <v>307</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="2">
+        <v>307</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2">
+        <v>307</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="2">
+        <v>307</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2">
+        <v>307</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2">
+        <v>307</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2">
+        <v>307</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2">
+        <v>307</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="2">
+        <v>307</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="2">
+        <v>307</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="2">
+        <v>313</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="2">
+        <v>313</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="2">
+        <v>314</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="2">
+        <v>336</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="2">
+        <v>336</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="2">
+        <v>336</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="2">
+        <v>451</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="2">
+        <v>719</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="2">
+        <v>816</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="2">
+        <v>816</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="2">
+        <v>920</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1115</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1546</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1546</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1546</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1546</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1553</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1569</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1590</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1590</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1633</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2028</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2232</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2233</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2240</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2240</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2240</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2441</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2758</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2821</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2821</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3066</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3066</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3066</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3066</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3175</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3420</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3420</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4175</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4177</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4195</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4195</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="2">
+        <v>4208</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4227</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4394</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4685</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4691</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5039</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5061</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5061</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="2">
+        <v>5063</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5199</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="2">
+        <v>5309</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="2">
+        <v>5472</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6120</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6383</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="2">
+        <v>7152</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="2">
+        <v>7805</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="2">
+        <v>8021</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="2">
+        <v>8021</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="2">
+        <v>8074</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="2">
+        <v>8154</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" s="2">
+        <v>8422</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="2">
         <v>8514</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
+      <c r="D109" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="2">
+        <v>8748</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="2">
+        <v>9098</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="2">
+        <v>9098</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -40,12 +40,12 @@
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
-  </si>
-  <si>
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
@@ -58,88 +58,88 @@
     <t>Charakterizace materiálů I</t>
   </si>
   <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
     <t>Vybrané partie z kvantové fyziky</t>
   </si>
   <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
     <t>Vybr. partie z teorie el. pole</t>
   </si>
   <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
     <t>Kvantová mechanika</t>
   </si>
   <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
+    <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
+    <t>Didaktika chemie II - SŠ</t>
+  </si>
+  <si>
     <t>Didaktika chemie I</t>
   </si>
   <si>
-    <t>Didaktika chemie II - SŠ</t>
-  </si>
-  <si>
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
+    <t>Matematika pro informatiky</t>
+  </si>
+  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
-    <t>Matematika pro informatiky</t>
-  </si>
-  <si>
     <t>VK - Úvod do geografie náboženství</t>
   </si>
   <si>
     <t>Hodnocení nebezpečných vlastností odpadů</t>
   </si>
   <si>
+    <t>Obecná zoologie</t>
+  </si>
+  <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
     <t>Somatologie</t>
-  </si>
-  <si>
-    <t>Parasitology</t>
-  </si>
-  <si>
-    <t>Obecná zoologie</t>
   </si>
   <si>
     <t>Approaches to regional histories</t>
@@ -179,36 +179,36 @@
     <t>VK-Česká republika a EU</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
+    <t>Medicína katastrof</t>
   </si>
   <si>
     <t>Návykové látky a právní předpisy</t>
   </si>
   <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
     <t>Lékové intoxikace</t>
   </si>
   <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Ekotoxikologie</t>
+  </si>
+  <si>
     <t>Úvod do toxikologie</t>
   </si>
   <si>
-    <t>Ekotoxikologie</t>
+    <t>Toxikologie NMgr.</t>
   </si>
   <si>
     <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
-    <t>Toxikologie NMgr.</t>
-  </si>
-  <si>
     <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
@@ -239,10 +239,10 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Klinická biochemie a patobiochemie</t>
+  </si>
+  <si>
     <t>Forenzní vědy</t>
-  </si>
-  <si>
-    <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
     <t>Bioaktivní přírodní látky</t>
@@ -315,132 +315,132 @@
     <t>N016</t>
   </si>
   <si>
+    <t>KB502</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
     <t>N059</t>
   </si>
   <si>
-    <t>KB502</t>
-  </si>
-  <si>
-    <t>PB502</t>
+    <t>UDPM</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>PSVN</t>
   </si>
   <si>
     <t>KUDPM</t>
   </si>
   <si>
-    <t>K218</t>
-  </si>
-  <si>
-    <t>PSVN</t>
-  </si>
-  <si>
-    <t>UDPM</t>
-  </si>
-  <si>
     <t>CHM1</t>
   </si>
   <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
     <t>PM100</t>
   </si>
   <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>K724</t>
+  </si>
+  <si>
     <t>PM101</t>
   </si>
   <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
     <t>KM</t>
   </si>
   <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>P213</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>P938</t>
+    <t>M409</t>
   </si>
   <si>
     <t>M214</t>
   </si>
   <si>
-    <t>M409</t>
-  </si>
-  <si>
     <t>0154</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>N115</t>
+  </si>
+  <si>
     <t>KN10</t>
   </si>
   <si>
-    <t>N115</t>
-  </si>
-  <si>
-    <t>KN22</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
     <t>N111</t>
   </si>
   <si>
+    <t>MAI</t>
+  </si>
+  <si>
     <t>P366</t>
   </si>
   <si>
-    <t>MAI</t>
-  </si>
-  <si>
     <t>0133</t>
   </si>
   <si>
     <t>N308</t>
   </si>
   <si>
+    <t>K110</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
-    <t>E129</t>
-  </si>
-  <si>
-    <t>K110</t>
-  </si>
-  <si>
     <t>BP423</t>
   </si>
   <si>
@@ -471,51 +471,51 @@
     <t>KDSA</t>
   </si>
   <si>
+    <t>TFL</t>
+  </si>
+  <si>
     <t>DSA</t>
   </si>
   <si>
-    <t>TFL</t>
-  </si>
-  <si>
     <t>E121</t>
   </si>
   <si>
     <t>0116</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
+    <t>BK307</t>
   </si>
   <si>
     <t>N107</t>
   </si>
   <si>
-    <t>BK307</t>
+    <t>P518</t>
   </si>
   <si>
     <t>N321</t>
   </si>
   <si>
-    <t>P518</t>
-  </si>
-  <si>
     <t>P414</t>
   </si>
   <si>
+    <t>N109</t>
+  </si>
+  <si>
     <t>P117</t>
   </si>
   <si>
-    <t>N109</t>
+    <t>N216</t>
   </si>
   <si>
     <t>P534</t>
   </si>
   <si>
-    <t>N216</t>
-  </si>
-  <si>
     <t>NA18</t>
   </si>
   <si>
@@ -549,30 +549,30 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N224</t>
+  </si>
+  <si>
     <t>N223</t>
   </si>
   <si>
-    <t>N224</t>
-  </si>
-  <si>
     <t>N211</t>
   </si>
   <si>
     <t>P750</t>
   </si>
   <si>
+    <t>AP04</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>P839</t>
+  </si>
+  <si>
     <t>P861</t>
   </si>
   <si>
-    <t>AP04</t>
-  </si>
-  <si>
-    <t>P839</t>
-  </si>
-  <si>
-    <t>0231</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
@@ -639,12 +639,12 @@
     <t>'doc. RNDr. Dušan Novotný CSc.</t>
   </si>
   <si>
+    <t>'doc. RNDr. Martin Balej Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Martin Balej Ph.D.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Martin Balej Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Milan Bursa CSc.'</t>
   </si>
   <si>
@@ -711,10 +711,10 @@
     <t>'Ing. Stanislav Hejda Ph.D.</t>
   </si>
   <si>
+    <t>'PharmDr. Markéta Švarcová Ph.D.</t>
+  </si>
+  <si>
     <t>'PharmDr. Markéta Švarcová Ph.D.'</t>
-  </si>
-  <si>
-    <t>'PharmDr. Markéta Švarcová Ph.D.</t>
   </si>
   <si>
     <t>'Ing. Kamil Lang CSc.'</t>
@@ -1275,12 +1275,12 @@
         <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>100</v>
@@ -1303,7 +1303,7 @@
         <v>281</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1401,7 +1401,7 @@
         <v>307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1420,7 +1420,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>110</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>111</v>
@@ -1443,12 +1443,12 @@
         <v>307</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>112</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>113</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>114</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>115</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>119</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>120</v>
@@ -1569,7 +1569,7 @@
         <v>307</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1588,7 +1588,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>122</v>
@@ -1597,12 +1597,12 @@
         <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>123</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>124</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>130</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>141</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>151</v>
@@ -2003,12 +2003,12 @@
         <v>2240</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>152</v>
@@ -2017,7 +2017,7 @@
         <v>2240</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2106,7 +2106,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>159</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>160</v>
@@ -2185,7 +2185,7 @@
         <v>3176</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2199,7 +2199,7 @@
         <v>3176</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2386,10 +2386,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C88" s="2">
         <v>5061</v>
@@ -2403,7 +2403,7 @@
         <v>58</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C89" s="2">
         <v>5061</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>181</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>182</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>184</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C111" s="2">
         <v>9098</v>
@@ -2725,7 +2725,7 @@
         <v>58</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C112" s="2">
         <v>9098</v>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="383">
   <si>
     <t>nazev</t>
   </si>
@@ -28,87 +28,123 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>Počítačové modelování IV</t>
+  </si>
+  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Demografie</t>
   </si>
   <si>
+    <t>Anorganická chemie</t>
+  </si>
+  <si>
     <t>Anorganická chemie Nmgr.</t>
   </si>
   <si>
+    <t>Patobiologie živočišných buněk a tkání</t>
+  </si>
+  <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
     <t>Fyziologie a mol. bio. eukar. buňky I</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
-  </si>
-  <si>
-    <t>Patobiologie živočišných buněk a tkání</t>
-  </si>
-  <si>
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
+    <t>Počítačové simulace v nanotechnologiích</t>
+  </si>
+  <si>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
+    <t>Fyzikální vlastnosti tenkých vrstev</t>
+  </si>
+  <si>
+    <t>Charakterizace materiálů I</t>
+  </si>
+  <si>
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
-    <t>Počítačové simulace v nanotechnologiích</t>
-  </si>
-  <si>
-    <t>Charakterizace materiálů I</t>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
     <t>Fyzika I</t>
   </si>
   <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika I</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
     <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+    <t>Vybrané partie z teorie elektromag. pole</t>
   </si>
   <si>
     <t>Sel. parts of the theory of el. fields</t>
   </si>
   <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
-    <t>Vybrané partie z kvantové fyziky</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
+    <t>VK-Teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybrané kapitoly FG Evropy</t>
+  </si>
+  <si>
+    <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
-    <t>Potenciál kulturní krajiny a GIS</t>
+    <t>Regional environmental change</t>
   </si>
   <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
+    <t>Planetární geografie</t>
+  </si>
+  <si>
     <t>Didaktika chemie II - SŠ</t>
   </si>
   <si>
@@ -118,28 +154,58 @@
     <t>VK-Regionální geografie Portugalska</t>
   </si>
   <si>
+    <t>VK-Programování ATMEL I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Programování B</t>
+  </si>
+  <si>
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
+    <t>Počítač. modelování - spojité modelování</t>
+  </si>
+  <si>
     <t>Matematika pro informatiky</t>
   </si>
   <si>
-    <t>Počítač. modelování - spojité modelování</t>
-  </si>
-  <si>
     <t>VK - Úvod do geografie náboženství</t>
   </si>
   <si>
+    <t>Kurz marketingu a managementu</t>
+  </si>
+  <si>
+    <t>Odpadové hospodářství I</t>
+  </si>
+  <si>
     <t>Hodnocení nebezpečných vlastností odpadů</t>
   </si>
   <si>
+    <t>Statistika na PC</t>
+  </si>
+  <si>
+    <t>Matematika III</t>
+  </si>
+  <si>
+    <t>Matematika IV</t>
+  </si>
+  <si>
+    <t>Parasitology</t>
+  </si>
+  <si>
+    <t>Somatologie</t>
+  </si>
+  <si>
+    <t>Biologie a ekologie člověka I</t>
+  </si>
+  <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
-    <t>Parasitology</t>
-  </si>
-  <si>
-    <t>Somatologie</t>
+    <t>Obecná parazitologie</t>
   </si>
   <si>
     <t>Approaches to regional histories</t>
@@ -155,9 +221,15 @@
     <t>Metody analýz materiálů</t>
   </si>
   <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
+    <t>Metody molekulární biologie</t>
+  </si>
+  <si>
     <t>VK-Proměny kulturní krajiny</t>
   </si>
   <si>
@@ -167,15 +239,21 @@
     <t>Value orient. in transforming societies</t>
   </si>
   <si>
+    <t>Teorie formálních jazyků</t>
+  </si>
+  <si>
     <t>Algoritmy a datové struktury</t>
   </si>
   <si>
-    <t>Teorie formálních jazyků</t>
+    <t>Struktura a vlastnosti polymerů</t>
   </si>
   <si>
     <t>Labor. Techniq. in Mol. and Cell Biology</t>
   </si>
   <si>
+    <t>Ochrana přírody</t>
+  </si>
+  <si>
     <t>VK-Česká republika a EU</t>
   </si>
   <si>
@@ -185,30 +263,36 @@
     <t>Základy financí</t>
   </si>
   <si>
+    <t>Anatomie a fyziologie člověka</t>
+  </si>
+  <si>
+    <t>Návykové látky a právní předpisy</t>
+  </si>
+  <si>
     <t>Medicína katastrof</t>
   </si>
   <si>
-    <t>Návykové látky a právní předpisy</t>
-  </si>
-  <si>
     <t>Lékové intoxikace</t>
   </si>
   <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Toxikologie I</t>
+  </si>
+  <si>
+    <t>Úvod do toxikologie</t>
+  </si>
+  <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
+    <t>Toxikologie NMgr.</t>
+  </si>
+  <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
-    <t>Úvod do toxikologie</t>
-  </si>
-  <si>
-    <t>Toxikologie NMgr.</t>
-  </si>
-  <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
-  </si>
-  <si>
     <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
@@ -221,6 +305,9 @@
     <t>Funkce a struktura buněčných membrán</t>
   </si>
   <si>
+    <t>Základy receptorové neurofyziologie</t>
+  </si>
+  <si>
     <t>Základy bioinženýrství</t>
   </si>
   <si>
@@ -230,6 +317,9 @@
     <t>Neziskový sektor a regionální rozvoj</t>
   </si>
   <si>
+    <t>Plant Biotechnology</t>
+  </si>
+  <si>
     <t>Domestikace a domestikanti</t>
   </si>
   <si>
@@ -239,25 +329,34 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Forenzní vědy</t>
+  </si>
+  <si>
+    <t>Klinická analýza</t>
+  </si>
+  <si>
     <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
-    <t>Forenzní vědy</t>
+    <t>Biochemie cizorodých látek</t>
   </si>
   <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
+  </si>
+  <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
+  </si>
+  <si>
+    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
-    <t>Principy a obvod. řešení el. spektometrů</t>
-  </si>
-  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
@@ -270,9 +369,21 @@
     <t>Toxikologie a legislavita ČR a EU 2</t>
   </si>
   <si>
+    <t>Toxikologie a legislavita ČR a EU 1</t>
+  </si>
+  <si>
+    <t>Nekovové anorganické materiály</t>
+  </si>
+  <si>
+    <t>Politická geografie</t>
+  </si>
+  <si>
     <t>Analýza síťové komunikace</t>
   </si>
   <si>
+    <t>Úvod do modelování průmyslových procesů</t>
+  </si>
+  <si>
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
@@ -282,9 +393,15 @@
     <t>Didaktika biologie I</t>
   </si>
   <si>
+    <t>Nanoporézní materiály</t>
+  </si>
+  <si>
     <t>Kompozity nanočástic kovů a jejich oxidů</t>
   </si>
   <si>
+    <t>Nanokompozitní materiály na bázi uhlíku</t>
+  </si>
+  <si>
     <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
@@ -294,154 +411,253 @@
     <t>Python and R for Data Science</t>
   </si>
   <si>
+    <t>Materials and Technolog. for Sust. Soc.</t>
+  </si>
+  <si>
+    <t>Základy matematiky</t>
+  </si>
+  <si>
+    <t>Pravděpodobnost a statistika I</t>
+  </si>
+  <si>
     <t>Geometrie</t>
   </si>
   <si>
+    <t>Pravděpodobnost a statistika II</t>
+  </si>
+  <si>
+    <t>K403</t>
+  </si>
+  <si>
     <t>K839</t>
   </si>
   <si>
+    <t>K503</t>
+  </si>
+  <si>
+    <t>P503</t>
+  </si>
+  <si>
+    <t>P403</t>
+  </si>
+  <si>
     <t>FDEMO</t>
   </si>
   <si>
     <t>5DEMO</t>
   </si>
   <si>
+    <t>P224</t>
+  </si>
+  <si>
     <t>N114</t>
   </si>
   <si>
     <t>KN11</t>
   </si>
   <si>
+    <t>N059</t>
+  </si>
+  <si>
+    <t>KB502</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
     <t>N016</t>
   </si>
   <si>
-    <t>KB502</t>
-  </si>
-  <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>N059</t>
-  </si>
-  <si>
     <t>UDPM</t>
   </si>
   <si>
+    <t>PSVN</t>
+  </si>
+  <si>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>KUDPM</t>
+  </si>
+  <si>
+    <t>P325</t>
+  </si>
+  <si>
+    <t>CHM1</t>
+  </si>
+  <si>
     <t>K218</t>
   </si>
   <si>
-    <t>PSVN</t>
-  </si>
-  <si>
-    <t>KUDPM</t>
-  </si>
-  <si>
-    <t>CHM1</t>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>KKM</t>
   </si>
   <si>
     <t>K222</t>
   </si>
   <si>
+    <t>P427</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
     <t>P938</t>
   </si>
   <si>
-    <t>K422</t>
-  </si>
-  <si>
-    <t>P213</t>
+    <t>PD203</t>
   </si>
   <si>
     <t>CM101</t>
   </si>
   <si>
-    <t>KSTR</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
-    <t>PM100</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>KM</t>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M214</t>
   </si>
   <si>
     <t>M409</t>
   </si>
   <si>
-    <t>M214</t>
+    <t>PD103</t>
   </si>
   <si>
     <t>0154</t>
   </si>
   <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>N304</t>
+  </si>
+  <si>
+    <t>KN10</t>
+  </si>
+  <si>
+    <t>N115</t>
+  </si>
+  <si>
     <t>KN22</t>
   </si>
   <si>
-    <t>N115</t>
-  </si>
-  <si>
-    <t>KN10</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>P422</t>
+  </si>
+  <si>
+    <t>P522</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
     <t>N111</t>
   </si>
   <si>
+    <t>P366</t>
+  </si>
+  <si>
     <t>MAI</t>
   </si>
   <si>
-    <t>P366</t>
-  </si>
-  <si>
     <t>0133</t>
   </si>
   <si>
+    <t>PD308</t>
+  </si>
+  <si>
+    <t>P313</t>
+  </si>
+  <si>
     <t>N308</t>
   </si>
   <si>
+    <t>K516</t>
+  </si>
+  <si>
+    <t>K304</t>
+  </si>
+  <si>
+    <t>K409</t>
+  </si>
+  <si>
+    <t>E129</t>
+  </si>
+  <si>
+    <t>BK423</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>BP423</t>
+  </si>
+  <si>
     <t>K110</t>
   </si>
   <si>
-    <t>E129</t>
-  </si>
-  <si>
-    <t>BK423</t>
-  </si>
-  <si>
-    <t>BP423</t>
+    <t>P323</t>
   </si>
   <si>
     <t>PD106</t>
@@ -456,9 +672,18 @@
     <t>AP05</t>
   </si>
   <si>
+    <t>PD202</t>
+  </si>
+  <si>
     <t>B605</t>
   </si>
   <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>ME200</t>
+  </si>
+  <si>
     <t>0120</t>
   </si>
   <si>
@@ -468,18 +693,24 @@
     <t>PD109</t>
   </si>
   <si>
+    <t>TFL</t>
+  </si>
+  <si>
     <t>KDSA</t>
   </si>
   <si>
-    <t>TFL</t>
-  </si>
-  <si>
     <t>DSA</t>
   </si>
   <si>
+    <t>PD305</t>
+  </si>
+  <si>
     <t>E121</t>
   </si>
   <si>
+    <t>P312</t>
+  </si>
+  <si>
     <t>0116</t>
   </si>
   <si>
@@ -489,33 +720,48 @@
     <t>ZFIN</t>
   </si>
   <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>N107</t>
+  </si>
+  <si>
+    <t>P518</t>
+  </si>
+  <si>
     <t>BK307</t>
   </si>
   <si>
-    <t>N107</t>
-  </si>
-  <si>
-    <t>P518</t>
+    <t>B307</t>
   </si>
   <si>
     <t>N321</t>
   </si>
   <si>
+    <t>BK106</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
     <t>P414</t>
   </si>
   <si>
+    <t>K101</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>P534</t>
+  </si>
+  <si>
+    <t>N216</t>
+  </si>
+  <si>
     <t>N109</t>
   </si>
   <si>
-    <t>P117</t>
-  </si>
-  <si>
-    <t>N216</t>
-  </si>
-  <si>
-    <t>P534</t>
-  </si>
-  <si>
     <t>NA18</t>
   </si>
   <si>
@@ -528,6 +774,9 @@
     <t>0088</t>
   </si>
   <si>
+    <t>0089</t>
+  </si>
+  <si>
     <t>0090</t>
   </si>
   <si>
@@ -540,6 +789,9 @@
     <t>0150</t>
   </si>
   <si>
+    <t>E115</t>
+  </si>
+  <si>
     <t>N050</t>
   </si>
   <si>
@@ -549,24 +801,30 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N223</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
     <t>N224</t>
   </si>
   <si>
-    <t>N223</t>
-  </si>
-  <si>
     <t>N211</t>
   </si>
   <si>
     <t>P750</t>
   </si>
   <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>P230</t>
+  </si>
+  <si>
     <t>AP04</t>
   </si>
   <si>
-    <t>0231</t>
-  </si>
-  <si>
     <t>P839</t>
   </si>
   <si>
@@ -585,9 +843,21 @@
     <t>P629</t>
   </si>
   <si>
+    <t>P529</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
     <t>ASK</t>
   </si>
   <si>
+    <t>M211</t>
+  </si>
+  <si>
     <t>PD55</t>
   </si>
   <si>
@@ -597,9 +867,15 @@
     <t>P108</t>
   </si>
   <si>
+    <t>PD10</t>
+  </si>
+  <si>
     <t>PD12</t>
   </si>
   <si>
+    <t>PD08</t>
+  </si>
+  <si>
     <t>ME301</t>
   </si>
   <si>
@@ -609,9 +885,21 @@
     <t>EPYR</t>
   </si>
   <si>
+    <t>PD307</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>K413</t>
+  </si>
+  <si>
     <t>P335</t>
   </si>
   <si>
+    <t>K312</t>
+  </si>
+  <si>
     <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
   </si>
   <si>
@@ -648,12 +936,24 @@
     <t>'Mgr. Milan Bursa CSc.'</t>
   </si>
   <si>
+    <t>'RNDr. Alena Chvátalová Ph.D.'</t>
+  </si>
+  <si>
     <t>'prof. PhDr. Jiří Škoda Ph.D., MBA</t>
   </si>
   <si>
     <t>'Mgr. Tomáš Oršulák</t>
   </si>
   <si>
+    <t>'doc. RNDr. František Fiala'</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Ing. Kurt Fišer CSc.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Dalibor Sedlák'</t>
+  </si>
+  <si>
     <t>'Ing. Václav Synek Ph.D.'</t>
   </si>
   <si>
@@ -663,9 +963,21 @@
     <t>'doc. RNDr. Ladislav Skokan CSc.'</t>
   </si>
   <si>
+    <t>'Ing. Lucie Povolná Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Ing. Miroslav Hlávka Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ing. Václav Dušek</t>
   </si>
   <si>
+    <t>'Mgr. Ing. Jana Gabčanová'</t>
+  </si>
+  <si>
+    <t>'prof. RNDr. Jan Malý DrSc.'</t>
+  </si>
+  <si>
     <t>'Mgr. Karina Vašinová Ph.D.'</t>
   </si>
   <si>
@@ -681,6 +993,12 @@
     <t>'doc. RNDr. Ivan Bičík CSc.'</t>
   </si>
   <si>
+    <t>'Ing. Martin Raška'</t>
+  </si>
+  <si>
+    <t>'Mgr. Jana Čejnová</t>
+  </si>
+  <si>
     <t>'PhDr. Aleš Navrátil Ph.D.'</t>
   </si>
   <si>
@@ -690,15 +1008,24 @@
     <t>'prof. Petr Dostál Ph.D., M.A.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Karel Oliva Dr.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Karel Oliva Dr.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Karel Oliva Dr.'</t>
+    <t>'prof. Ing. Václav Švorčík DrSc.'</t>
   </si>
   <si>
     <t>'Mgr. Alena Semerádtová Ph.D.</t>
   </si>
   <si>
+    <t>'Ing. Jiří Moravec Ph.D., MBA'</t>
+  </si>
+  <si>
+    <t>'Mgr. Kateřina Radana Drbalová</t>
+  </si>
+  <si>
     <t>'doc. Dr. phil. Mgr. Lukáš Novotný Ph.D., M.A.'</t>
   </si>
   <si>
@@ -711,12 +1038,12 @@
     <t>'Ing. Stanislav Hejda Ph.D.</t>
   </si>
   <si>
+    <t>'PharmDr. Markéta Švarcová Ph.D.'</t>
+  </si>
+  <si>
     <t>'PharmDr. Markéta Švarcová Ph.D.</t>
   </si>
   <si>
-    <t>'PharmDr. Markéta Švarcová Ph.D.'</t>
-  </si>
-  <si>
     <t>'Ing. Kamil Lang CSc.'</t>
   </si>
   <si>
@@ -726,6 +1053,9 @@
     <t>'RNDr. Hana Sychrová DrSc.'</t>
   </si>
   <si>
+    <t>'RNDr. Viktorie Vlachová DrSc.'</t>
+  </si>
+  <si>
     <t>'MUDr. Lucie Bačáková CSc.'</t>
   </si>
   <si>
@@ -735,9 +1065,15 @@
     <t>'prof. RNDr. Zdeněk Fišar CSc.</t>
   </si>
   <si>
+    <t>'Mgr. Stanislav Lhota Ph.D.</t>
+  </si>
+  <si>
     <t>'Mgr. Petr Bláha Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Tomáš Vaněk CSc.'</t>
+  </si>
+  <si>
     <t>'prof. RNDr. Stanislav Komárek Ph.D.'</t>
   </si>
   <si>
@@ -759,6 +1095,9 @@
     <t>'prof. doc. RNDr. Irena Valterová CSc.'</t>
   </si>
   <si>
+    <t>'Ing. Johana Jackovičová Ph.D.</t>
+  </si>
+  <si>
     <t>'doc. Mgr. Pavel Kudrna'</t>
   </si>
   <si>
@@ -777,18 +1116,33 @@
     <t>'Ing. Ivan Hrabal'</t>
   </si>
   <si>
+    <t>'Ing. Pavlína Hájková Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Gustav Novotný Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ing. Vojtěch Šindler'</t>
   </si>
   <si>
+    <t>'Ing. Martin Kantor Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ing. Marcela Munzarová Ph.D.'</t>
   </si>
   <si>
     <t>'PaedDr. Milan Kubiatko PhD.'</t>
   </si>
   <si>
+    <t>'RNDr. Jakub Demel PhD.'</t>
+  </si>
+  <si>
     <t>'Ing. Darina Smržová Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Petra Ecorchard Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Pavel Branny CSc.</t>
   </si>
   <si>
@@ -798,7 +1152,16 @@
     <t>'Ricardo Rodriguez Jorge Ph.D.</t>
   </si>
   <si>
+    <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
+  </si>
+  <si>
+    <t>'Mgr. Jiří Rozkovec'</t>
+  </si>
+  <si>
     <t>'RNDr. Lenka Juklová Ph.D.</t>
+  </si>
+  <si>
+    <t>'Mgr. Bc. Lukáš Tichý'</t>
   </si>
   <si>
     <t>'RNDr. Alžběta Dlabková Ph.D.</t>
@@ -863,8 +1226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D112" totalsRowShown="0">
-  <autoFilter ref="A1:D112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D172" totalsRowShown="0">
+  <autoFilter ref="A1:D172"/>
   <tableColumns count="4">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1160,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1185,13 +1548,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1199,27 +1562,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1227,27 +1590,27 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1255,27 +1618,27 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1283,13 +1646,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1297,237 +1660,237 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="C19" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2">
         <v>307</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2">
         <v>307</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2">
         <v>307</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2">
         <v>307</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1535,13 +1898,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2">
         <v>307</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1549,13 +1912,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2">
         <v>307</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1563,1175 +1926,2015 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C29" s="2">
         <v>307</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2">
         <v>307</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2">
         <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C32" s="2">
         <v>307</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2">
         <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2">
         <v>307</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C36" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C38" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C39" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C40" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C41" s="2">
-        <v>451</v>
+        <v>307</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2">
-        <v>719</v>
+        <v>307</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>212</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="C43" s="2">
-        <v>816</v>
+        <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C44" s="2">
-        <v>816</v>
+        <v>307</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C45" s="2">
-        <v>920</v>
+        <v>307</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2">
-        <v>1115</v>
+        <v>307</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="C47" s="2">
-        <v>1546</v>
+        <v>307</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2">
-        <v>1546</v>
+        <v>307</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2">
-        <v>1546</v>
+        <v>313</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2">
-        <v>1546</v>
+        <v>313</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C51" s="2">
-        <v>1553</v>
+        <v>313</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="C52" s="2">
-        <v>1569</v>
+        <v>313</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2">
-        <v>1590</v>
+        <v>314</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2">
-        <v>1590</v>
+        <v>316</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C55" s="2">
-        <v>1633</v>
+        <v>336</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="C56" s="2">
-        <v>2028</v>
+        <v>336</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C57" s="2">
-        <v>2232</v>
+        <v>336</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C58" s="2">
-        <v>2233</v>
+        <v>336</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="C59" s="2">
-        <v>2240</v>
+        <v>451</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="C60" s="2">
-        <v>2240</v>
+        <v>605</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="C61" s="2">
-        <v>2240</v>
+        <v>606</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2">
-        <v>2441</v>
+        <v>606</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="C63" s="2">
-        <v>2758</v>
+        <v>612</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C64" s="2">
-        <v>2821</v>
+        <v>719</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="C65" s="2">
-        <v>2821</v>
+        <v>816</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C66" s="2">
-        <v>3066</v>
+        <v>816</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C67" s="2">
-        <v>3066</v>
+        <v>920</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C68" s="2">
-        <v>3066</v>
+        <v>1057</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2">
-        <v>3066</v>
+        <v>1067</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="C70" s="2">
-        <v>3175</v>
+        <v>1115</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C71" s="2">
-        <v>3176</v>
+        <v>1456</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C72" s="2">
-        <v>3176</v>
+        <v>1537</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C73" s="2">
-        <v>3176</v>
+        <v>1537</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="C74" s="2">
-        <v>3176</v>
+        <v>1546</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C75" s="2">
-        <v>3420</v>
+        <v>1546</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C76" s="2">
-        <v>3420</v>
+        <v>1546</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="C77" s="2">
-        <v>3458</v>
+        <v>1546</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C78" s="2">
-        <v>4175</v>
+        <v>1546</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C79" s="2">
-        <v>4177</v>
+        <v>1546</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C80" s="2">
-        <v>4195</v>
+        <v>1553</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="C81" s="2">
-        <v>4195</v>
+        <v>1569</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="C82" s="2">
-        <v>4208</v>
+        <v>1590</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C83" s="2">
-        <v>4227</v>
+        <v>1590</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="C84" s="2">
-        <v>4394</v>
+        <v>1590</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="C85" s="2">
-        <v>4685</v>
+        <v>1633</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="C86" s="2">
-        <v>4691</v>
+        <v>1894</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C87" s="2">
-        <v>5039</v>
+        <v>1986</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="C88" s="2">
-        <v>5061</v>
+        <v>1986</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="C89" s="2">
-        <v>5061</v>
+        <v>2028</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C90" s="2">
-        <v>5062</v>
+        <v>2232</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C91" s="2">
-        <v>5062</v>
+        <v>2233</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C92" s="2">
-        <v>5063</v>
+        <v>2240</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C93" s="2">
-        <v>5199</v>
+        <v>2240</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="C94" s="2">
-        <v>5201</v>
+        <v>2240</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="C95" s="2">
-        <v>5201</v>
+        <v>2428</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="C96" s="2">
-        <v>5201</v>
+        <v>2441</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="C97" s="2">
-        <v>5201</v>
+        <v>2527</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C98" s="2">
-        <v>5309</v>
+        <v>2757</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C99" s="2">
-        <v>5472</v>
+        <v>2758</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C100" s="2">
-        <v>6120</v>
+        <v>2821</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2">
-        <v>6383</v>
+        <v>2821</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="C102" s="2">
-        <v>7152</v>
+        <v>3066</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="C103" s="2">
-        <v>7805</v>
+        <v>3066</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C104" s="2">
-        <v>8021</v>
+        <v>3066</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="C105" s="2">
-        <v>8021</v>
+        <v>3066</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="C106" s="2">
-        <v>8074</v>
+        <v>3066</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="C107" s="2">
-        <v>8154</v>
+        <v>3066</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="C108" s="2">
-        <v>8422</v>
+        <v>3066</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="C109" s="2">
-        <v>8514</v>
+        <v>3066</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="C110" s="2">
-        <v>8748</v>
+        <v>3175</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="C111" s="2">
-        <v>9098</v>
+        <v>3176</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>261</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="C112" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" s="2">
+        <v>3176</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3420</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3420</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="2">
+        <v>4175</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="2">
+        <v>4176</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="2">
+        <v>4177</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C122" s="2">
+        <v>4195</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" s="2">
+        <v>4195</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="2">
+        <v>4208</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="2">
+        <v>4219</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" s="2">
+        <v>4227</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4390</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" s="2">
+        <v>4394</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4685</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4691</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" s="2">
+        <v>5039</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="2">
+        <v>5061</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="2">
+        <v>5061</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C136" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" s="2">
+        <v>5062</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" s="2">
+        <v>5063</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" s="2">
+        <v>5131</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C140" s="2">
+        <v>5199</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C141" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C142" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" s="2">
+        <v>5201</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C146" s="2">
+        <v>5309</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C147" s="2">
+        <v>5472</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C148" s="2">
+        <v>6120</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C149" s="2">
+        <v>6383</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C150" s="2">
+        <v>6383</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C151" s="2">
+        <v>6886</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C152" s="2">
+        <v>6886</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="2">
+        <v>6920</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="2">
+        <v>7152</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C155" s="2">
+        <v>7307</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" s="2">
+        <v>7805</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C157" s="2">
+        <v>8021</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" s="2">
+        <v>8021</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" s="2">
+        <v>8073</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" s="2">
+        <v>8074</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C161" s="2">
+        <v>8075</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C162" s="2">
+        <v>8154</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" s="2">
+        <v>8422</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="2">
+        <v>8515</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C166" s="2">
+        <v>8677</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C167" s="2">
+        <v>8677</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C168" s="2">
+        <v>8748</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C169" s="2">
+        <v>8748</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" s="2">
+        <v>8750</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C171" s="2">
         <v>9098</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>261</v>
+      <c r="D171" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C172" s="2">
+        <v>9098</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="414">
   <si>
     <t>nazev</t>
   </si>
@@ -31,24 +31,27 @@
     <t>Počítačové modelování IV</t>
   </si>
   <si>
+    <t>Základy počítačové fyziky</t>
+  </si>
+  <si>
     <t>Fyzika pevných látek I</t>
   </si>
   <si>
-    <t>Základy počítačové fyziky</t>
-  </si>
-  <si>
     <t>Demografie</t>
   </si>
   <si>
+    <t>Anorganická chemie Nmgr.</t>
+  </si>
+  <si>
     <t>Anorganická chemie</t>
   </si>
   <si>
-    <t>Anorganická chemie Nmgr.</t>
-  </si>
-  <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
+    <t>Fyziologie a molekul. biologie živ. buňk</t>
+  </si>
+  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
@@ -73,72 +76,75 @@
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
+    <t>Sel. parts of the theory of el. fields</t>
+  </si>
+  <si>
+    <t>Teorie relativity</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>VK-Teorie relativity</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
     <t>Kvantová fyzika</t>
   </si>
   <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teoretické fyziky I</t>
+  </si>
+  <si>
     <t>Úvod do kvantové fyziky a spektroskopie</t>
   </si>
   <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Fyzika</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
     <t>Kvantová fyzika II</t>
   </si>
   <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
-  </si>
-  <si>
     <t>Fyzika I</t>
   </si>
   <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
     <t>Kvantová fyzika I</t>
   </si>
   <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová mechanika</t>
-  </si>
-  <si>
     <t>Speciální teorie relativity</t>
   </si>
   <si>
-    <t>Vybrané partie z kvantové fyziky</t>
-  </si>
-  <si>
-    <t>Teorie relativity</t>
-  </si>
-  <si>
     <t>PVK - Vyb.partie z teoretické fyziky II</t>
   </si>
   <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teoretické fyziky I</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Sel. parts of the theory of el. fields</t>
-  </si>
-  <si>
-    <t>VK-Teorie relativity</t>
-  </si>
-  <si>
     <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
+    <t>Krajinná ekologie</t>
+  </si>
+  <si>
+    <t>Regional environmental change</t>
+  </si>
+  <si>
+    <t>Metody geografického výzkumu krajiny</t>
+  </si>
+  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
-    <t>Metody geografického výzkumu krajiny</t>
-  </si>
-  <si>
-    <t>Regional environmental change</t>
-  </si>
-  <si>
     <t>Problémové oblasti Česka</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t>Vybrané partie z teoretické fyziky II</t>
   </si>
   <si>
+    <t>Teoretická mechanika I</t>
+  </si>
+  <si>
     <t>Programování B</t>
   </si>
   <si>
@@ -187,24 +196,24 @@
     <t>Statistika na PC</t>
   </si>
   <si>
+    <t>Matematika IV</t>
+  </si>
+  <si>
     <t>Matematika III</t>
   </si>
   <si>
-    <t>Matematika IV</t>
+    <t>Somatologie</t>
   </si>
   <si>
     <t>Parasitology</t>
   </si>
   <si>
-    <t>Somatologie</t>
+    <t>Obecná zoologie</t>
   </si>
   <si>
     <t>Biologie a ekologie člověka I</t>
   </si>
   <si>
-    <t>Obecná zoologie</t>
-  </si>
-  <si>
     <t>Obecná parazitologie</t>
   </si>
   <si>
@@ -212,18 +221,18 @@
   </si>
   <si>
     <t>Logistika</t>
+  </si>
+  <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
-    <t>Metody analýz materiálů</t>
-  </si>
-  <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
@@ -251,54 +260,60 @@
     <t>Labor. Techniq. in Mol. and Cell Biology</t>
   </si>
   <si>
+    <t>Microscopy Techniques in Biology</t>
+  </si>
+  <si>
     <t>Ochrana přírody</t>
   </si>
   <si>
     <t>VK-Česká republika a EU</t>
   </si>
   <si>
+    <t>Geospatial data: sources and analysis</t>
+  </si>
+  <si>
+    <t>Základy financí</t>
+  </si>
+  <si>
     <t>Finanční analýza</t>
   </si>
   <si>
-    <t>Základy financí</t>
+    <t>Lékové intoxikace</t>
   </si>
   <si>
     <t>Anatomie a fyziologie člověka</t>
   </si>
   <si>
+    <t>Medicína katastrof</t>
+  </si>
+  <si>
     <t>Návykové látky a právní předpisy</t>
   </si>
   <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
-    <t>Lékové intoxikace</t>
-  </si>
-  <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
+    <t>Toxikologie rostl. a živočišných toxinů</t>
+  </si>
+  <si>
     <t>Toxikologie I</t>
   </si>
   <si>
+    <t>Toxikologie NMgr.</t>
+  </si>
+  <si>
     <t>Úvod do toxikologie</t>
   </si>
   <si>
-    <t>Toxikologie rostl. a živočišných toxinů</t>
-  </si>
-  <si>
-    <t>Toxikologie NMgr.</t>
-  </si>
-  <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
+    <t>Fotofyzika a fotochemie nanomateriálů</t>
+  </si>
+  <si>
     <t>Úvod do fotofyziky a fotochemie nanomat.</t>
   </si>
   <si>
-    <t>Fotofyzika a fotochemie nanomateriálů</t>
-  </si>
-  <si>
     <t>Počítačové sítě a protokoly</t>
   </si>
   <si>
@@ -326,21 +341,24 @@
     <t>Information Security</t>
   </si>
   <si>
+    <t>Scientific inquiry and reasoning</t>
+  </si>
+  <si>
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Biochemie cizorodých látek</t>
+  </si>
+  <si>
+    <t>Klinická analýza</t>
+  </si>
+  <si>
     <t>Forenzní vědy</t>
   </si>
   <si>
-    <t>Klinická analýza</t>
-  </si>
-  <si>
     <t>Klinická biochemie a patobiochemie</t>
   </si>
   <si>
-    <t>Biochemie cizorodých látek</t>
-  </si>
-  <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
@@ -348,21 +366,24 @@
   </si>
   <si>
     <t>Principy a obvod. řešení el. spektometrů</t>
-  </si>
-  <si>
-    <t>Fyzika povrchů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
+    <t>Fyzika povrchů</t>
+  </si>
+  <si>
     <t>Veřejná správa</t>
   </si>
   <si>
     <t>Srovnávací anatom. a morfol. obratlovců</t>
   </si>
   <si>
+    <t>Anglický jazyk A</t>
+  </si>
+  <si>
     <t>Veřejné finance</t>
   </si>
   <si>
@@ -387,12 +408,12 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie I</t>
+  </si>
+  <si>
     <t>Didaktika biologie II</t>
   </si>
   <si>
-    <t>Didaktika biologie I</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -402,24 +423,36 @@
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Pokroky v mol. biologii bakterií a virů</t>
+  </si>
+  <si>
     <t>Apl. biologie prokaryot. a eukaryot. m.</t>
   </si>
   <si>
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
+    <t>Machine Learning Based on R Software</t>
+  </si>
+  <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
     <t>Python and R for Data Science</t>
   </si>
   <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
+    <t>Pravděpodobnost a statistika I</t>
+  </si>
+  <si>
     <t>Základy matematiky</t>
   </si>
   <si>
-    <t>Pravděpodobnost a statistika I</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
@@ -429,45 +462,48 @@
     <t>K403</t>
   </si>
   <si>
+    <t>P503</t>
+  </si>
+  <si>
+    <t>P403</t>
+  </si>
+  <si>
     <t>K839</t>
   </si>
   <si>
     <t>K503</t>
   </si>
   <si>
-    <t>P503</t>
-  </si>
-  <si>
-    <t>P403</t>
-  </si>
-  <si>
     <t>FDEMO</t>
   </si>
   <si>
     <t>5DEMO</t>
   </si>
   <si>
+    <t>KN11</t>
+  </si>
+  <si>
     <t>P224</t>
   </si>
   <si>
     <t>N114</t>
   </si>
   <si>
-    <t>KN11</t>
-  </si>
-  <si>
     <t>N059</t>
   </si>
   <si>
+    <t>ME100</t>
+  </si>
+  <si>
+    <t>PB502</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
     <t>KB502</t>
   </si>
   <si>
-    <t>PB502</t>
-  </si>
-  <si>
-    <t>N016</t>
-  </si>
-  <si>
     <t>UDPM</t>
   </si>
   <si>
@@ -477,108 +513,111 @@
     <t>K414</t>
   </si>
   <si>
+    <t>P325</t>
+  </si>
+  <si>
     <t>KUDPM</t>
   </si>
   <si>
-    <t>P325</t>
-  </si>
-  <si>
     <t>CHM1</t>
   </si>
   <si>
     <t>K218</t>
   </si>
   <si>
+    <t>CM101</t>
+  </si>
+  <si>
+    <t>P606</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P737</t>
+  </si>
+  <si>
+    <t>K422</t>
+  </si>
+  <si>
+    <t>P938</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
     <t>K724</t>
   </si>
   <si>
-    <t>P216</t>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>P427</t>
   </si>
   <si>
     <t>P607</t>
   </si>
   <si>
-    <t>K422</t>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>K512</t>
   </si>
   <si>
     <t>P213</t>
   </si>
   <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
     <t>STR</t>
   </si>
   <si>
-    <t>TEP</t>
-  </si>
-  <si>
-    <t>PM100</t>
-  </si>
-  <si>
-    <t>P606</t>
-  </si>
-  <si>
     <t>K522</t>
   </si>
   <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>P737</t>
-  </si>
-  <si>
     <t>KSTR</t>
   </si>
   <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>P938</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>CM101</t>
-  </si>
-  <si>
-    <t>0164</t>
-  </si>
-  <si>
     <t>M102</t>
   </si>
   <si>
+    <t>B303</t>
+  </si>
+  <si>
+    <t>PD103</t>
+  </si>
+  <si>
+    <t>M409</t>
+  </si>
+  <si>
     <t>M214</t>
   </si>
   <si>
-    <t>M409</t>
-  </si>
-  <si>
-    <t>PD103</t>
-  </si>
-  <si>
     <t>0154</t>
   </si>
   <si>
@@ -588,25 +627,28 @@
     <t>N304</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
     <t>KN10</t>
   </si>
   <si>
     <t>N115</t>
   </si>
   <si>
-    <t>KN22</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
     <t>0175</t>
   </si>
   <si>
+    <t>P522</t>
+  </si>
+  <si>
     <t>P422</t>
   </si>
   <si>
-    <t>P522</t>
+    <t>K305</t>
   </si>
   <si>
     <t>P203</t>
@@ -636,27 +678,27 @@
     <t>K516</t>
   </si>
   <si>
+    <t>K409</t>
+  </si>
+  <si>
     <t>K304</t>
   </si>
   <si>
-    <t>K409</t>
+    <t>BP423</t>
   </si>
   <si>
     <t>E129</t>
   </si>
   <si>
+    <t>K110</t>
+  </si>
+  <si>
     <t>BK423</t>
   </si>
   <si>
     <t>P303</t>
   </si>
   <si>
-    <t>BP423</t>
-  </si>
-  <si>
-    <t>K110</t>
-  </si>
-  <si>
     <t>P323</t>
   </si>
   <si>
@@ -666,15 +708,15 @@
     <t>LOG</t>
   </si>
   <si>
+    <t>PD202</t>
+  </si>
+  <si>
+    <t>AP05</t>
+  </si>
+  <si>
     <t>AP03</t>
   </si>
   <si>
-    <t>AP05</t>
-  </si>
-  <si>
-    <t>PD202</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
@@ -705,69 +747,78 @@
     <t>PD305</t>
   </si>
   <si>
+    <t>PD06</t>
+  </si>
+  <si>
     <t>E121</t>
   </si>
   <si>
+    <t>E120</t>
+  </si>
+  <si>
     <t>P312</t>
   </si>
   <si>
     <t>0116</t>
   </si>
   <si>
+    <t>PD107</t>
+  </si>
+  <si>
+    <t>ZFIN</t>
+  </si>
+  <si>
     <t>FINA</t>
   </si>
   <si>
-    <t>ZFIN</t>
+    <t>N321</t>
+  </si>
+  <si>
+    <t>BK106</t>
+  </si>
+  <si>
+    <t>P518</t>
+  </si>
+  <si>
+    <t>B106</t>
   </si>
   <si>
     <t>P226</t>
   </si>
   <si>
+    <t>BK307</t>
+  </si>
+  <si>
     <t>N107</t>
   </si>
   <si>
-    <t>P518</t>
-  </si>
-  <si>
-    <t>BK307</t>
-  </si>
-  <si>
     <t>B307</t>
   </si>
   <si>
-    <t>N321</t>
-  </si>
-  <si>
-    <t>BK106</t>
-  </si>
-  <si>
-    <t>B106</t>
-  </si>
-  <si>
     <t>P414</t>
   </si>
   <si>
+    <t>P534</t>
+  </si>
+  <si>
     <t>K101</t>
   </si>
   <si>
+    <t>N216</t>
+  </si>
+  <si>
     <t>P117</t>
   </si>
   <si>
-    <t>P534</t>
-  </si>
-  <si>
-    <t>N216</t>
-  </si>
-  <si>
     <t>N109</t>
   </si>
   <si>
+    <t>PD53</t>
+  </si>
+  <si>
     <t>NA18</t>
   </si>
   <si>
-    <t>PD53</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
@@ -780,12 +831,12 @@
     <t>0090</t>
   </si>
   <si>
+    <t>KBIG</t>
+  </si>
+  <si>
     <t>BIG</t>
   </si>
   <si>
-    <t>KBIG</t>
-  </si>
-  <si>
     <t>0150</t>
   </si>
   <si>
@@ -798,15 +849,18 @@
     <t>0177</t>
   </si>
   <si>
+    <t>PD101</t>
+  </si>
+  <si>
     <t>AUC</t>
   </si>
   <si>
+    <t>N024</t>
+  </si>
+  <si>
     <t>N223</t>
   </si>
   <si>
-    <t>N024</t>
-  </si>
-  <si>
     <t>N224</t>
   </si>
   <si>
@@ -816,27 +870,30 @@
     <t>P750</t>
   </si>
   <si>
+    <t>P839</t>
+  </si>
+  <si>
+    <t>P861</t>
+  </si>
+  <si>
     <t>0231</t>
   </si>
   <si>
+    <t>AP04</t>
+  </si>
+  <si>
     <t>P230</t>
   </si>
   <si>
-    <t>AP04</t>
-  </si>
-  <si>
-    <t>P839</t>
-  </si>
-  <si>
-    <t>P861</t>
-  </si>
-  <si>
     <t>VSP</t>
   </si>
   <si>
     <t>N060</t>
   </si>
   <si>
+    <t>K104</t>
+  </si>
+  <si>
     <t>VFIN</t>
   </si>
   <si>
@@ -861,12 +918,12 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P108</t>
+  </si>
+  <si>
     <t>P208</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -876,30 +933,42 @@
     <t>PD08</t>
   </si>
   <si>
+    <t>ME300</t>
+  </si>
+  <si>
     <t>ME301</t>
   </si>
   <si>
     <t>ME302</t>
   </si>
   <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
     <t>EPYR</t>
   </si>
   <si>
     <t>PD307</t>
   </si>
   <si>
+    <t>K413</t>
+  </si>
+  <si>
     <t>P103</t>
   </si>
   <si>
-    <t>K413</t>
+    <t>K312</t>
   </si>
   <si>
     <t>P335</t>
   </si>
   <si>
-    <t>K312</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
   </si>
   <si>
@@ -921,12 +990,12 @@
     <t>'prof. RNDr. Stanislav Novák CSc.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Dušan Novotný CSc.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Dušan Novotný CSc.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Dušan Novotný CSc.</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Martin Balej Ph.D.'</t>
   </si>
   <si>
@@ -951,6 +1020,9 @@
     <t>'doc. RNDr. Ing. Kurt Fišer CSc.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Ing. Kurt Fišer CSc.</t>
+  </si>
+  <si>
     <t>'Mgr. Dalibor Sedlák'</t>
   </si>
   <si>
@@ -1029,6 +1101,9 @@
     <t>'doc. Dr. phil. Mgr. Lukáš Novotný Ph.D., M.A.'</t>
   </si>
   <si>
+    <t>'doc. Ing. Jan Pacina Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ing. Kateřina Felixová Ph.D.'</t>
   </si>
   <si>
@@ -1083,6 +1158,9 @@
     <t>'Ing. Vladimír Balach</t>
   </si>
   <si>
+    <t>'doc. Ing. Lenka Slavíková Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. Ing. Mgr. Petr Klán CSc.'</t>
   </si>
   <si>
@@ -1110,12 +1188,18 @@
     <t>'RNDr. Michal Němec Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Vladimír Lorenc'</t>
+  </si>
+  <si>
     <t>'Ing. Lucie Kopáčková</t>
   </si>
   <si>
     <t>'Ing. Ivan Hrabal'</t>
   </si>
   <si>
+    <t>'Mgr. Michal Forejt'</t>
+  </si>
+  <si>
     <t>'Ing. Pavlína Hájková Ph.D.'</t>
   </si>
   <si>
@@ -1143,13 +1227,22 @@
     <t>'Ing. Petra Ecorchard Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Pavel Branny CSc.'</t>
+  </si>
+  <si>
     <t>'RNDr. Pavel Branny CSc.</t>
   </si>
   <si>
+    <t>'Mgr. David Poustka</t>
+  </si>
+  <si>
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.</t>
+  </si>
+  <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
   </si>
   <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
@@ -1226,8 +1319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D172" totalsRowShown="0">
-  <autoFilter ref="A1:D172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D186" totalsRowShown="0">
+  <autoFilter ref="A1:D186"/>
   <tableColumns count="4">
     <tableColumn id="1" name="nazev" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1523,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1548,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2">
         <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1562,27 +1655,27 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2">
         <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2">
         <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1590,27 +1683,27 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2">
         <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2">
         <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1618,13 +1711,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2">
         <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1632,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2">
         <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1646,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2">
         <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1660,27 +1753,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2">
         <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2">
         <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1688,13 +1781,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2">
         <v>281</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1702,55 +1795,55 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2">
         <v>281</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2">
         <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2">
         <v>281</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1758,13 +1851,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2">
         <v>306</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1772,55 +1865,55 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2">
         <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2">
         <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2">
         <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C21" s="2">
         <v>306</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1828,13 +1921,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2">
         <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1842,13 +1935,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1856,13 +1949,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2">
         <v>307</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1870,13 +1963,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2">
         <v>307</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1884,13 +1977,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2">
         <v>307</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1898,97 +1991,97 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2">
         <v>307</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2">
         <v>307</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C29" s="2">
         <v>307</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2">
         <v>307</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2">
         <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2">
         <v>307</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2">
         <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1996,13 +2089,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C34" s="2">
         <v>307</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2010,153 +2103,153 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C35" s="2">
         <v>307</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C36" s="2">
         <v>307</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2">
         <v>307</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2">
         <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C39" s="2">
         <v>307</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2">
         <v>307</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C41" s="2">
         <v>307</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2">
         <v>307</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C43" s="2">
         <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C44" s="2">
         <v>307</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C45" s="2">
         <v>307</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2164,55 +2257,55 @@
         <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2">
         <v>307</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2">
         <v>307</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2">
         <v>307</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C49" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2220,13 +2313,13 @@
         <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C50" s="2">
         <v>313</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2234,13 +2327,13 @@
         <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C51" s="2">
         <v>313</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2248,13 +2341,13 @@
         <v>40</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C52" s="2">
         <v>313</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2262,13 +2355,13 @@
         <v>41</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C53" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2276,13 +2369,13 @@
         <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C54" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2290,13 +2383,13 @@
         <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C55" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2304,55 +2397,55 @@
         <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C56" s="2">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C57" s="2">
         <v>336</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C58" s="2">
         <v>336</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2360,69 +2453,69 @@
         <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C60" s="2">
-        <v>605</v>
+        <v>336</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C61" s="2">
-        <v>606</v>
+        <v>451</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C63" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C64" s="2">
-        <v>719</v>
+        <v>606</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2430,13 +2523,13 @@
         <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C65" s="2">
-        <v>816</v>
+        <v>606</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2444,13 +2537,13 @@
         <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C66" s="2">
-        <v>816</v>
+        <v>612</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2458,13 +2551,13 @@
         <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C67" s="2">
-        <v>920</v>
+        <v>719</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2472,13 +2565,13 @@
         <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C68" s="2">
-        <v>1057</v>
+        <v>816</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2486,13 +2579,13 @@
         <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C69" s="2">
-        <v>1067</v>
+        <v>816</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2500,13 +2593,13 @@
         <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2">
-        <v>1115</v>
+        <v>920</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2514,13 +2607,13 @@
         <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C71" s="2">
-        <v>1456</v>
+        <v>1057</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2528,13 +2621,13 @@
         <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C72" s="2">
-        <v>1537</v>
+        <v>1067</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2542,13 +2635,13 @@
         <v>58</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C73" s="2">
-        <v>1537</v>
+        <v>1115</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2556,13 +2649,13 @@
         <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C74" s="2">
-        <v>1546</v>
+        <v>1456</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2570,13 +2663,13 @@
         <v>60</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C75" s="2">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2584,69 +2677,69 @@
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C76" s="2">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2">
         <v>1546</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C78" s="2">
         <v>1546</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2">
         <v>1546</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C80" s="2">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2654,13 +2747,13 @@
         <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C81" s="2">
-        <v>1569</v>
+        <v>1546</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2668,13 +2761,13 @@
         <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C82" s="2">
-        <v>1590</v>
+        <v>1546</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2682,13 +2775,13 @@
         <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C83" s="2">
-        <v>1590</v>
+        <v>1553</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2696,13 +2789,13 @@
         <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C84" s="2">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2710,83 +2803,83 @@
         <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C85" s="2">
-        <v>1633</v>
+        <v>1590</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C86" s="2">
-        <v>1894</v>
+        <v>1590</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C87" s="2">
-        <v>1986</v>
+        <v>1590</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C88" s="2">
-        <v>1986</v>
+        <v>1633</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C89" s="2">
-        <v>2028</v>
+        <v>1894</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C90" s="2">
-        <v>2232</v>
+        <v>1986</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2794,13 +2887,13 @@
         <v>73</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C91" s="2">
-        <v>2233</v>
+        <v>1986</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2808,13 +2901,13 @@
         <v>74</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C92" s="2">
-        <v>2240</v>
+        <v>2028</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2822,55 +2915,55 @@
         <v>75</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C93" s="2">
-        <v>2240</v>
+        <v>2232</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C94" s="2">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C95" s="2">
-        <v>2428</v>
+        <v>2240</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C96" s="2">
-        <v>2441</v>
+        <v>2240</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2878,27 +2971,27 @@
         <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2">
-        <v>2527</v>
+        <v>2240</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C98" s="2">
-        <v>2757</v>
+        <v>2428</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2906,13 +2999,13 @@
         <v>79</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C99" s="2">
-        <v>2758</v>
+        <v>2428</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2920,13 +3013,13 @@
         <v>80</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C100" s="2">
-        <v>2821</v>
+        <v>2441</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2934,13 +3027,13 @@
         <v>81</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C101" s="2">
-        <v>2821</v>
+        <v>2441</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2948,41 +3041,41 @@
         <v>82</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C102" s="2">
-        <v>3066</v>
+        <v>2527</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C103" s="2">
-        <v>3066</v>
+        <v>2757</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C104" s="2">
-        <v>3066</v>
+        <v>2758</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2990,97 +3083,97 @@
         <v>84</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C105" s="2">
-        <v>3066</v>
+        <v>2787</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C106" s="2">
-        <v>3066</v>
+        <v>2821</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C107" s="2">
-        <v>3066</v>
+        <v>2821</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C108" s="2">
         <v>3066</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C109" s="2">
         <v>3066</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C110" s="2">
-        <v>3175</v>
+        <v>3066</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C111" s="2">
-        <v>3176</v>
+        <v>3066</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3088,13 +3181,13 @@
         <v>88</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C112" s="2">
-        <v>3176</v>
+        <v>3066</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3102,13 +3195,13 @@
         <v>89</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C113" s="2">
-        <v>3176</v>
+        <v>3066</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3116,125 +3209,125 @@
         <v>90</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C114" s="2">
-        <v>3176</v>
+        <v>3066</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C115" s="2">
-        <v>3176</v>
+        <v>3066</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C116" s="2">
-        <v>3420</v>
+        <v>3175</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C117" s="2">
-        <v>3420</v>
+        <v>3176</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C118" s="2">
-        <v>3458</v>
+        <v>3176</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C119" s="2">
-        <v>4175</v>
+        <v>3176</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C120" s="2">
-        <v>4176</v>
+        <v>3176</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C121" s="2">
-        <v>4177</v>
+        <v>3176</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C122" s="2">
-        <v>4195</v>
+        <v>3420</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3242,251 +3335,251 @@
         <v>98</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C123" s="2">
-        <v>4195</v>
+        <v>3420</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2">
-        <v>4208</v>
+        <v>3458</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C125" s="2">
-        <v>4219</v>
+        <v>4175</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C126" s="2">
-        <v>4227</v>
+        <v>4176</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C127" s="2">
-        <v>4390</v>
+        <v>4177</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C128" s="2">
-        <v>4394</v>
+        <v>4195</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C129" s="2">
-        <v>4685</v>
+        <v>4195</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="C130" s="2">
-        <v>4691</v>
+        <v>4208</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C131" s="2">
-        <v>5039</v>
+        <v>4219</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="C132" s="2">
-        <v>5061</v>
+        <v>4227</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="C133" s="2">
-        <v>5061</v>
+        <v>4390</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C134" s="2">
-        <v>5062</v>
+        <v>4394</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C135" s="2">
-        <v>5062</v>
+        <v>4685</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="C136" s="2">
-        <v>5062</v>
+        <v>4691</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="C137" s="2">
-        <v>5062</v>
+        <v>4747</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C138" s="2">
-        <v>5063</v>
+        <v>5039</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C139" s="2">
-        <v>5131</v>
+        <v>5061</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C140" s="2">
-        <v>5199</v>
+        <v>5061</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3494,13 +3587,13 @@
         <v>110</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="C141" s="2">
-        <v>5201</v>
+        <v>5062</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3508,13 +3601,13 @@
         <v>111</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C142" s="2">
-        <v>5201</v>
+        <v>5062</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3522,125 +3615,125 @@
         <v>112</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C143" s="2">
-        <v>5201</v>
+        <v>5062</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C144" s="2">
-        <v>5201</v>
+        <v>5062</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C145" s="2">
-        <v>5201</v>
+        <v>5063</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C146" s="2">
-        <v>5309</v>
+        <v>5131</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C147" s="2">
-        <v>5472</v>
+        <v>5199</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C148" s="2">
-        <v>6120</v>
+        <v>5201</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C149" s="2">
-        <v>6383</v>
+        <v>5201</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C150" s="2">
-        <v>6383</v>
+        <v>5201</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C151" s="2">
-        <v>6886</v>
+        <v>5201</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3648,13 +3741,13 @@
         <v>118</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C152" s="2">
-        <v>6886</v>
+        <v>5201</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3662,13 +3755,13 @@
         <v>119</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C153" s="2">
-        <v>6920</v>
+        <v>5309</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3676,13 +3769,13 @@
         <v>120</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C154" s="2">
-        <v>7152</v>
+        <v>5472</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3690,13 +3783,13 @@
         <v>121</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C155" s="2">
-        <v>7307</v>
+        <v>5754</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3704,13 +3797,13 @@
         <v>122</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C156" s="2">
-        <v>7805</v>
+        <v>6120</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3718,13 +3811,13 @@
         <v>123</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C157" s="2">
-        <v>8021</v>
+        <v>6383</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3732,209 +3825,405 @@
         <v>124</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C158" s="2">
-        <v>8021</v>
+        <v>6383</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="C159" s="2">
-        <v>8073</v>
+        <v>6387</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C160" s="2">
-        <v>8074</v>
+        <v>6886</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C161" s="2">
-        <v>8075</v>
+        <v>6886</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C162" s="2">
-        <v>8154</v>
+        <v>6920</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C163" s="2">
-        <v>8422</v>
+        <v>7152</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C164" s="2">
-        <v>8514</v>
+        <v>7307</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C165" s="2">
-        <v>8515</v>
+        <v>7805</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C166" s="2">
-        <v>8677</v>
+        <v>8021</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C167" s="2">
-        <v>8677</v>
+        <v>8021</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C168" s="2">
-        <v>8748</v>
+        <v>8073</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C169" s="2">
-        <v>8748</v>
+        <v>8074</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>163</v>
+        <v>304</v>
       </c>
       <c r="C170" s="2">
-        <v>8750</v>
+        <v>8075</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="C171" s="2">
-        <v>9098</v>
+        <v>8154</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="C172" s="2">
+        <v>8154</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C173" s="2">
+        <v>8316</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C174" s="2">
+        <v>8422</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C175" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C176" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C178" s="2">
+        <v>8514</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C179" s="2">
+        <v>8515</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C180" s="2">
+        <v>8677</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C181" s="2">
+        <v>8677</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C182" s="2">
+        <v>8748</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" s="2">
+        <v>8748</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C184" s="2">
+        <v>8750</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C185" s="2">
         <v>9098</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>382</v>
+      <c r="D185" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C186" s="2">
+        <v>9098</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -88,31 +88,31 @@
     <t>KDSA</t>
   </si>
   <si>
+    <t>KSYS</t>
+  </si>
+  <si>
     <t>SYS</t>
   </si>
   <si>
-    <t>KSYS</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
+    <t>KBIG</t>
+  </si>
+  <si>
     <t>BIG</t>
   </si>
   <si>
-    <t>KBIG</t>
-  </si>
-  <si>
     <t>0177</t>
   </si>
   <si>
     <t>AUC</t>
   </si>
   <si>
+    <t>KAEL</t>
+  </si>
+  <si>
     <t>ANE</t>
-  </si>
-  <si>
-    <t>KAEL</t>
   </si>
   <si>
     <t>KANE</t>

--- a/results/prednasejici_bez_prednasek.xlsx
+++ b/results/prednasejici_bez_prednasek.xlsx
@@ -46,99 +46,99 @@
     <t>Anorganická chemie</t>
   </si>
   <si>
+    <t>Fyziologie a molekul. biologie živ. buňk</t>
+  </si>
+  <si>
+    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+  </si>
+  <si>
     <t>Patobiologie živočišných buněk a tkání</t>
   </si>
   <si>
-    <t>Fyziologie a molekul. biologie živ. buňk</t>
-  </si>
-  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
-    <t>Fyziologie a mol. bio. eukar. buňky I</t>
+    <t>Vybrané partie z fyziky</t>
+  </si>
+  <si>
+    <t>Charakterizace materiálů I</t>
   </si>
   <si>
     <t>Úvod do počítačového modelování</t>
   </si>
   <si>
+    <t>Vakuová fyzika a technika</t>
+  </si>
+  <si>
+    <t>Fyzikální vlastnosti tenkých vrstev</t>
+  </si>
+  <si>
     <t>Počítačové simulace v nanotechnologiích</t>
   </si>
   <si>
-    <t>Vybrané partie z fyziky</t>
-  </si>
-  <si>
-    <t>Fyzikální vlastnosti tenkých vrstev</t>
-  </si>
-  <si>
-    <t>Charakterizace materiálů I</t>
-  </si>
-  <si>
-    <t>Vakuová fyzika a technika</t>
+    <t>Teorie elektromagnetického pole</t>
+  </si>
+  <si>
+    <t>Vybr. partie z teorie el. pole</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky I</t>
   </si>
   <si>
     <t>Sel. parts of the theory of el. fields</t>
   </si>
   <si>
+    <t>Kvantová fyzika</t>
+  </si>
+  <si>
+    <t>Fyzika I</t>
+  </si>
+  <si>
+    <t>Vybrané partie z kvantové fyziky</t>
+  </si>
+  <si>
+    <t>Úvod do kvantové fyziky a spektroskopie</t>
+  </si>
+  <si>
+    <t>Vybrané partie z teorie elektromag. pole</t>
+  </si>
+  <si>
+    <t>Speciální teorie relativity</t>
+  </si>
+  <si>
+    <t>Kvantová mechanika</t>
+  </si>
+  <si>
+    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+  </si>
+  <si>
+    <t>Kvantová fyzika II</t>
+  </si>
+  <si>
     <t>Teorie relativity</t>
   </si>
   <si>
-    <t>Kvantová mechanika</t>
+    <t>Kvantová fyzika I</t>
   </si>
   <si>
     <t>VK-Teorie relativity</t>
   </si>
   <si>
-    <t>Vybr. partie z teorie el. pole</t>
-  </si>
-  <si>
-    <t>Teorie elektromagnetického pole</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky I</t>
+    <t>Fyzika</t>
   </si>
   <si>
     <t>Vybrané partie z teoretické fyziky I</t>
   </si>
   <si>
-    <t>Úvod do kvantové fyziky a spektroskopie</t>
-  </si>
-  <si>
-    <t>Vybrané partie z teorie elektromag. pole</t>
-  </si>
-  <si>
-    <t>Fyzika</t>
-  </si>
-  <si>
-    <t>Vybrané partie z kvantové fyziky</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika II</t>
-  </si>
-  <si>
-    <t>Fyzika I</t>
-  </si>
-  <si>
-    <t>Kvantová fyzika I</t>
-  </si>
-  <si>
-    <t>Speciální teorie relativity</t>
-  </si>
-  <si>
-    <t>PVK - Vyb.partie z teoretické fyziky II</t>
+    <t>Krajinná ekologie</t>
+  </si>
+  <si>
+    <t>Regional environmental change</t>
   </si>
   <si>
     <t>Vybrané kapitoly FG Evropy</t>
   </si>
   <si>
-    <t>Krajinná ekologie</t>
-  </si>
-  <si>
-    <t>Regional environmental change</t>
-  </si>
-  <si>
     <t>Metody geografického výzkumu krajiny</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>Systém kvality a vyhodnocování dat</t>
   </si>
   <si>
+    <t>Matematika pro informatiky</t>
+  </si>
+  <si>
     <t>Počítač. modelování - spojité modelování</t>
   </si>
   <si>
-    <t>Matematika pro informatiky</t>
-  </si>
-  <si>
     <t>VK - Úvod do geografie náboženství</t>
   </si>
   <si>
@@ -196,43 +196,43 @@
     <t>Statistika na PC</t>
   </si>
   <si>
+    <t>Matematika III</t>
+  </si>
+  <si>
     <t>Matematika IV</t>
   </si>
   <si>
-    <t>Matematika III</t>
+    <t>Biologie a ekologie člověka I</t>
   </si>
   <si>
     <t>Somatologie</t>
   </si>
   <si>
+    <t>Obecná parazitologie</t>
+  </si>
+  <si>
     <t>Parasitology</t>
   </si>
   <si>
     <t>Obecná zoologie</t>
   </si>
   <si>
-    <t>Biologie a ekologie člověka I</t>
-  </si>
-  <si>
-    <t>Obecná parazitologie</t>
-  </si>
-  <si>
     <t>Approaches to regional histories</t>
   </si>
   <si>
     <t>Logistika</t>
-  </si>
-  <si>
-    <t>Komplexní analýza materiálů</t>
-  </si>
-  <si>
-    <t>Metody analýz materiálů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. el. mikroskopie</t>
   </si>
   <si>
+    <t>Komplexní analýza materiálů</t>
+  </si>
+  <si>
+    <t>Metody analýz materiálů</t>
+  </si>
+  <si>
     <t>Specializační přednášky z praxe</t>
   </si>
   <si>
@@ -248,12 +248,12 @@
     <t>Value orient. in transforming societies</t>
   </si>
   <si>
+    <t>Algoritmy a datové struktury</t>
+  </si>
+  <si>
     <t>Teorie formálních jazyků</t>
   </si>
   <si>
-    <t>Algoritmy a datové struktury</t>
-  </si>
-  <si>
     <t>Struktura a vlastnosti polymerů</t>
   </si>
   <si>
@@ -272,39 +272,39 @@
     <t>Geospatial data: sources and analysis</t>
   </si>
   <si>
+    <t>Finanční analýza</t>
+  </si>
+  <si>
     <t>Základy financí</t>
   </si>
   <si>
-    <t>Finanční analýza</t>
-  </si>
-  <si>
     <t>Lékové intoxikace</t>
   </si>
   <si>
+    <t>Návykové látky a právní předpisy</t>
+  </si>
+  <si>
+    <t>Medicína katastrof</t>
+  </si>
+  <si>
     <t>Anatomie a fyziologie člověka</t>
   </si>
   <si>
-    <t>Medicína katastrof</t>
-  </si>
-  <si>
-    <t>Návykové látky a právní předpisy</t>
-  </si>
-  <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
     <t>Toxikologie rostl. a živočišných toxinů</t>
   </si>
   <si>
+    <t>Úvod do toxikologie</t>
+  </si>
+  <si>
+    <t>Toxikologie NMgr.</t>
+  </si>
+  <si>
     <t>Toxikologie I</t>
   </si>
   <si>
-    <t>Toxikologie NMgr.</t>
-  </si>
-  <si>
-    <t>Úvod do toxikologie</t>
-  </si>
-  <si>
     <t>Ekotoxikologie</t>
   </si>
   <si>
@@ -347,31 +347,31 @@
     <t>Automatické řízení</t>
   </si>
   <si>
+    <t>Klinická biochemie a patobiochemie</t>
+  </si>
+  <si>
+    <t>Forenzní vědy</t>
+  </si>
+  <si>
+    <t>Klinická analýza</t>
+  </si>
+  <si>
     <t>Biochemie cizorodých látek</t>
   </si>
   <si>
-    <t>Klinická analýza</t>
-  </si>
-  <si>
-    <t>Forenzní vědy</t>
-  </si>
-  <si>
-    <t>Klinická biochemie a patobiochemie</t>
-  </si>
-  <si>
     <t>Bioaktivní přírodní látky</t>
   </si>
   <si>
     <t>Fyzika plazmatu a plazmové technologie</t>
-  </si>
-  <si>
-    <t>Principy a obvod. řešení el. spektometrů</t>
   </si>
   <si>
     <t>Met. analýz mat. 
 využ. prin. el. spektr</t>
   </si>
   <si>
+    <t>Principy a obvod. řešení el. spektometrů</t>
+  </si>
+  <si>
     <t>Fyzika povrchů</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>Přípr. a využití nanovlákenných struktur</t>
   </si>
   <si>
+    <t>Didaktika biologie II</t>
+  </si>
+  <si>
     <t>Didaktika biologie I</t>
   </si>
   <si>
-    <t>Didaktika biologie II</t>
-  </si>
-  <si>
     <t>Nanoporézní materiály</t>
   </si>
   <si>
@@ -423,195 +423,195 @@
     <t>Nanokompozitní materiály na bázi uhlíku</t>
   </si>
   <si>
+    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
+  </si>
+  <si>
     <t>Pokroky v mol. biologii bakterií a virů</t>
   </si>
   <si>
-    <t>Apl. biologie prokaryot. a eukaryot. m.</t>
-  </si>
-  <si>
     <t>Regulace a poruchy signálních drah ž.b.</t>
   </si>
   <si>
+    <t>Data Mining Techniq. based on R Software</t>
+  </si>
+  <si>
+    <t>Python and R for Data Science</t>
+  </si>
+  <si>
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
     <t>Machine Learning Based on R Software</t>
   </si>
   <si>
-    <t>Data Mining Techniq. based on R Software</t>
-  </si>
-  <si>
-    <t>Python and R for Data Science</t>
-  </si>
-  <si>
     <t>Materials and Technolog. for Sust. Soc.</t>
   </si>
   <si>
+    <t>Základy matematiky</t>
+  </si>
+  <si>
     <t>Pravděpodobnost a statistika I</t>
   </si>
   <si>
-    <t>Základy matematiky</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
     <t>Pravděpodobnost a statistika II</t>
   </si>
   <si>
+    <t>P403</t>
+  </si>
+  <si>
+    <t>K503</t>
+  </si>
+  <si>
     <t>K403</t>
   </si>
   <si>
     <t>P503</t>
   </si>
   <si>
-    <t>P403</t>
-  </si>
-  <si>
     <t>K839</t>
   </si>
   <si>
-    <t>K503</t>
-  </si>
-  <si>
     <t>FDEMO</t>
   </si>
   <si>
     <t>5DEMO</t>
   </si>
   <si>
+    <t>N114</t>
+  </si>
+  <si>
+    <t>P224</t>
+  </si>
+  <si>
     <t>KN11</t>
   </si>
   <si>
-    <t>P224</t>
-  </si>
-  <si>
-    <t>N114</t>
+    <t>ME100</t>
+  </si>
+  <si>
+    <t>N016</t>
   </si>
   <si>
     <t>N059</t>
   </si>
   <si>
-    <t>ME100</t>
-  </si>
-  <si>
     <t>PB502</t>
   </si>
   <si>
-    <t>N016</t>
-  </si>
-  <si>
     <t>KB502</t>
   </si>
   <si>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>CHM1</t>
+  </si>
+  <si>
+    <t>KUDPM</t>
+  </si>
+  <si>
+    <t>K218</t>
+  </si>
+  <si>
+    <t>P325</t>
+  </si>
+  <si>
+    <t>PSVN</t>
+  </si>
+  <si>
     <t>UDPM</t>
   </si>
   <si>
-    <t>PSVN</t>
-  </si>
-  <si>
-    <t>K414</t>
-  </si>
-  <si>
-    <t>P325</t>
-  </si>
-  <si>
-    <t>KUDPM</t>
-  </si>
-  <si>
-    <t>CHM1</t>
-  </si>
-  <si>
-    <t>K218</t>
+    <t>P508</t>
+  </si>
+  <si>
+    <t>PM101</t>
+  </si>
+  <si>
+    <t>K422</t>
   </si>
   <si>
     <t>CM101</t>
   </si>
   <si>
+    <t>K724</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>PM100</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>PD203</t>
+  </si>
+  <si>
+    <t>KSTR</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>KKM</t>
+  </si>
+  <si>
+    <t>K522</t>
+  </si>
+  <si>
+    <t>P607</t>
+  </si>
+  <si>
     <t>P606</t>
   </si>
   <si>
-    <t>KKM</t>
+    <t>K606</t>
+  </si>
+  <si>
+    <t>P509</t>
+  </si>
+  <si>
+    <t>K222</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>P427</t>
   </si>
   <si>
     <t>0164</t>
   </si>
   <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>PM101</t>
-  </si>
-  <si>
-    <t>TEP</t>
-  </si>
-  <si>
     <t>P737</t>
   </si>
   <si>
-    <t>K422</t>
+    <t>K512</t>
+  </si>
+  <si>
+    <t>P231</t>
   </si>
   <si>
     <t>P938</t>
   </si>
   <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>PD203</t>
-  </si>
-  <si>
-    <t>K724</t>
-  </si>
-  <si>
-    <t>P231</t>
-  </si>
-  <si>
-    <t>PM100</t>
-  </si>
-  <si>
-    <t>P427</t>
-  </si>
-  <si>
-    <t>P607</t>
-  </si>
-  <si>
-    <t>K222</t>
-  </si>
-  <si>
-    <t>P508</t>
-  </si>
-  <si>
-    <t>P509</t>
-  </si>
-  <si>
-    <t>K606</t>
-  </si>
-  <si>
-    <t>K512</t>
-  </si>
-  <si>
-    <t>P213</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>K522</t>
-  </si>
-  <si>
-    <t>KSTR</t>
+    <t>B303</t>
+  </si>
+  <si>
+    <t>PD103</t>
   </si>
   <si>
     <t>M102</t>
   </si>
   <si>
-    <t>B303</t>
-  </si>
-  <si>
-    <t>PD103</t>
-  </si>
-  <si>
     <t>M409</t>
   </si>
   <si>
@@ -624,30 +624,30 @@
     <t>B102</t>
   </si>
   <si>
+    <t>KN22</t>
+  </si>
+  <si>
+    <t>KN10</t>
+  </si>
+  <si>
+    <t>N115</t>
+  </si>
+  <si>
     <t>N304</t>
   </si>
   <si>
-    <t>KN22</t>
-  </si>
-  <si>
-    <t>KN10</t>
-  </si>
-  <si>
-    <t>N115</t>
-  </si>
-  <si>
     <t>0124</t>
   </si>
   <si>
     <t>0175</t>
   </si>
   <si>
+    <t>P422</t>
+  </si>
+  <si>
     <t>P522</t>
   </si>
   <si>
-    <t>P422</t>
-  </si>
-  <si>
     <t>K305</t>
   </si>
   <si>
@@ -657,12 +657,12 @@
     <t>N111</t>
   </si>
   <si>
+    <t>MAI</t>
+  </si>
+  <si>
     <t>P366</t>
   </si>
   <si>
-    <t>MAI</t>
-  </si>
-  <si>
     <t>0133</t>
   </si>
   <si>
@@ -678,15 +678,21 @@
     <t>K516</t>
   </si>
   <si>
+    <t>K304</t>
+  </si>
+  <si>
     <t>K409</t>
   </si>
   <si>
-    <t>K304</t>
+    <t>P303</t>
   </si>
   <si>
     <t>BP423</t>
   </si>
   <si>
+    <t>P323</t>
+  </si>
+  <si>
     <t>E129</t>
   </si>
   <si>
@@ -696,27 +702,21 @@
     <t>BK423</t>
   </si>
   <si>
-    <t>P303</t>
-  </si>
-  <si>
-    <t>P323</t>
-  </si>
-  <si>
     <t>PD106</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
+    <t>AP03</t>
+  </si>
+  <si>
     <t>PD202</t>
   </si>
   <si>
     <t>AP05</t>
   </si>
   <si>
-    <t>AP03</t>
-  </si>
-  <si>
     <t>B605</t>
   </si>
   <si>
@@ -735,15 +735,15 @@
     <t>PD109</t>
   </si>
   <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>KDSA</t>
+  </si>
+  <si>
     <t>TFL</t>
   </si>
   <si>
-    <t>KDSA</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
     <t>PD305</t>
   </si>
   <si>
@@ -765,51 +765,51 @@
     <t>PD107</t>
   </si>
   <si>
+    <t>FINA</t>
+  </si>
+  <si>
     <t>ZFIN</t>
   </si>
   <si>
-    <t>FINA</t>
-  </si>
-  <si>
     <t>N321</t>
   </si>
   <si>
+    <t>N107</t>
+  </si>
+  <si>
+    <t>B307</t>
+  </si>
+  <si>
+    <t>P518</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>BK307</t>
+  </si>
+  <si>
     <t>BK106</t>
   </si>
   <si>
-    <t>P518</t>
-  </si>
-  <si>
-    <t>B106</t>
-  </si>
-  <si>
     <t>P226</t>
   </si>
   <si>
-    <t>BK307</t>
-  </si>
-  <si>
-    <t>N107</t>
-  </si>
-  <si>
-    <t>B307</t>
-  </si>
-  <si>
     <t>P414</t>
   </si>
   <si>
     <t>P534</t>
   </si>
   <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>N216</t>
+  </si>
+  <si>
     <t>K101</t>
   </si>
   <si>
-    <t>N216</t>
-  </si>
-  <si>
-    <t>P117</t>
-  </si>
-  <si>
     <t>N109</t>
   </si>
   <si>
@@ -855,33 +855,33 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>N224</t>
+  </si>
+  <si>
+    <t>N223</t>
+  </si>
+  <si>
     <t>N024</t>
   </si>
   <si>
-    <t>N223</t>
-  </si>
-  <si>
-    <t>N224</t>
-  </si>
-  <si>
     <t>N211</t>
   </si>
   <si>
     <t>P750</t>
   </si>
   <si>
+    <t>AP04</t>
+  </si>
+  <si>
     <t>P839</t>
   </si>
   <si>
+    <t>0231</t>
+  </si>
+  <si>
     <t>P861</t>
   </si>
   <si>
-    <t>0231</t>
-  </si>
-  <si>
-    <t>AP04</t>
-  </si>
-  <si>
     <t>P230</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>PD55</t>
   </si>
   <si>
+    <t>P208</t>
+  </si>
+  <si>
     <t>P108</t>
   </si>
   <si>
-    <t>P208</t>
-  </si>
-  <si>
     <t>PD10</t>
   </si>
   <si>
@@ -933,42 +933,42 @@
     <t>PD08</t>
   </si>
   <si>
+    <t>ME301</t>
+  </si>
+  <si>
     <t>ME300</t>
   </si>
   <si>
-    <t>ME301</t>
-  </si>
-  <si>
     <t>ME302</t>
   </si>
   <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>EPYR</t>
+  </si>
+  <si>
     <t>EDAV</t>
   </si>
   <si>
     <t>EMLR</t>
   </si>
   <si>
-    <t>EDMR</t>
-  </si>
-  <si>
-    <t>EPYR</t>
-  </si>
-  <si>
     <t>PD307</t>
   </si>
   <si>
+    <t>P103</t>
+  </si>
+  <si>
     <t>K413</t>
   </si>
   <si>
-    <t>P103</t>
+    <t>P335</t>
   </si>
   <si>
     <t>K312</t>
   </si>
   <si>
-    <t>P335</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Rudolf Hrach DrSc.'</t>
   </si>
   <si>
@@ -978,30 +978,30 @@
     <t>'doc. Ing. Tomáš Loučka CSc.</t>
   </si>
   <si>
+    <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
+  </si>
+  <si>
     <t>'doc. MUDr. Vladislav Mareš DrSc.'</t>
   </si>
   <si>
-    <t>'doc. MUDr. Vladislav Mareš DrSc.</t>
+    <t>'prof. RNDr. Stanislav Novák CSc.'</t>
   </si>
   <si>
     <t>'prof. RNDr. Stanislav Novák CSc.</t>
   </si>
   <si>
-    <t>'prof. RNDr. Stanislav Novák CSc.'</t>
+    <t>'doc. RNDr. Dušan Novotný CSc.'</t>
   </si>
   <si>
     <t>'doc. RNDr. Dušan Novotný CSc.</t>
   </si>
   <si>
-    <t>'doc. RNDr. Dušan Novotný CSc.'</t>
+    <t>'doc. RNDr. Martin Balej Ph.D.</t>
   </si>
   <si>
     <t>'doc. RNDr. Martin Balej Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Martin Balej Ph.D.</t>
-  </si>
-  <si>
     <t>'Mgr. Milan Bursa CSc.'</t>
   </si>
   <si>
@@ -1080,12 +1080,12 @@
     <t>'prof. Petr Dostál Ph.D., M.A.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Karel Oliva Dr.</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Karel Oliva Dr.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Karel Oliva Dr.</t>
-  </si>
-  <si>
     <t>'prof. Ing. Václav Švorčík DrSc.'</t>
   </si>
   <si>
@@ -1227,22 +1227,22 @@
     <t>'Ing. Petra Ecorchard Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Pavel Branny CSc.</t>
+  </si>
+  <si>
     <t>'RNDr. Pavel Branny CSc.'</t>
   </si>
   <si>
-    <t>'RNDr. Pavel Branny CSc.</t>
-  </si>
-  <si>
     <t>'Mgr. David Poustka</t>
   </si>
   <si>
     <t>'Ing. Tomáš Vomastek Ph.D.'</t>
   </si>
   <si>
+    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ricardo Rodriguez Jorge Ph.D.</t>
-  </si>
-  <si>
-    <t>'Ricardo Rodriguez Jorge Ph.D.'</t>
   </si>
   <si>
     <t>'Ing. Tadeáš Riley Wangle Ph.D.'</t>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>150</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>151</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>161</v>
@@ -1843,7 +1843,7 @@
         <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1871,7 +1871,7 @@
         <v>306</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1899,12 +1899,12 @@
         <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>166</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>167</v>
@@ -1927,12 +1927,12 @@
         <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>168</v>
@@ -1983,7 +1983,7 @@
         <v>307</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2002,7 +2002,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>173</v>
@@ -2011,12 +2011,12 @@
         <v>307</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>174</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>175</v>
@@ -2039,12 +2039,12 @@
         <v>307</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>176</v>
@@ -2053,12 +2053,12 @@
         <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>177</v>
@@ -2067,12 +2067,12 @@
         <v>307</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>178</v>
@@ -2081,12 +2081,12 @@
         <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>179</v>
@@ -2095,12 +2095,12 @@
         <v>307</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>180</v>
@@ -2109,12 +2109,12 @@
         <v>307</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>181</v>
@@ -2123,7 +2123,7 @@
         <v>307</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2137,7 +2137,7 @@
         <v>307</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2151,12 +2151,12 @@
         <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>184</v>
@@ -2165,7 +2165,7 @@
         <v>307</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2179,7 +2179,7 @@
         <v>307</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2193,7 +2193,7 @@
         <v>307</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2207,12 +2207,12 @@
         <v>307</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>188</v>
@@ -2221,12 +2221,12 @@
         <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>189</v>
@@ -2235,7 +2235,7 @@
         <v>307</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2249,12 +2249,12 @@
         <v>307</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>191</v>
@@ -2263,12 +2263,12 @@
         <v>307</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>192</v>
@@ -2277,12 +2277,12 @@
         <v>307</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>193</v>
@@ -2291,12 +2291,12 @@
         <v>307</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>194</v>
@@ -2305,7 +2305,7 @@
         <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2333,7 +2333,7 @@
         <v>313</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2361,7 +2361,7 @@
         <v>313</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2375,7 +2375,7 @@
         <v>313</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>203</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>205</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>208</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>209</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>225</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>226</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>227</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C89" s="2">
         <v>1894</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>240</v>
@@ -2963,7 +2963,7 @@
         <v>2240</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3052,10 +3052,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C103" s="2">
         <v>2757</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>254</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>255</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>258</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2">
         <v>4208</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C131" s="2">
         <v>4219</v>
@@ -3570,10 +3570,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C140" s="2">
         <v>5061</v>
@@ -3587,7 +3587,7 @@
         <v>110</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="C141" s="2">
         <v>5062</v>
@@ -3601,7 +3601,7 @@
         <v>111</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C142" s="2">
         <v>5062</v>
@@ -3615,7 +3615,7 @@
         <v>112</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C143" s="2">
         <v>5062</v>
@@ -3629,7 +3629,7 @@
         <v>113</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="C144" s="2">
         <v>5062</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>284</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>286</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>287</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C159" s="2">
         <v>6387</v>
@@ -4189,7 +4189,7 @@
         <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C184" s="2">
         <v>8750</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C186" s="2">
         <v>9098</v>
